--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52627\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\SISTEMA DE CONTROL\HISTORIAL DE COMPRAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3E8F28-DF81-4EF5-A972-DA77F08202BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A84DA-8329-45C0-9D51-EE6F6A7B514D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENRIQUE OROZCO LUEVANO" sheetId="1" r:id="rId1"/>
+    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -115,16 +116,86 @@
   </si>
   <si>
     <t>UTILIDAD   NETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>CONDICION</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>COSTO X UNIDAD</t>
+  </si>
+  <si>
+    <t>COSTO NETO</t>
+  </si>
+  <si>
+    <t>PRECIO BASE X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO SHOP X UNIDAD</t>
+  </si>
+  <si>
+    <t>PRECIO ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>COMISION ML X UNIDAD</t>
+  </si>
+  <si>
+    <t>COMISION ML NETA</t>
+  </si>
+  <si>
+    <t>IVA X UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD X UNIDAD</t>
+  </si>
+  <si>
+    <t>UTILIDAD NETA</t>
+  </si>
+  <si>
+    <t>BUFF</t>
+  </si>
+  <si>
+    <t>BANDANA MULTIFUNCIONAL - VARIOS MODELOS Y COLORES - ABSORBENTE - FACIL DE LAVAR - NUEVOS</t>
+  </si>
+  <si>
+    <t>12  agosto</t>
+  </si>
+  <si>
+    <t>NUEVO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2.2222222222222223</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +248,620 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +921,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -275,12 +988,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,10 +1061,316 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="37" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="41" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="43" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="47" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="49" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="50" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="52" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="55" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="58" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="62" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="64" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="65" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="67" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="68" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="70" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="71" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="14" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="16" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="87" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="88" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="89" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="92" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="93" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="94" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="95" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="96" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="98" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="99" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="100" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="101" fillId="16" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="104" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="105" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="106" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="107" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="108" fillId="12" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,14 +1654,14 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="21" width="20.7109375" customWidth="1"/>
-    <col min="22" max="23" width="40.7109375" customWidth="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="21" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="22" max="23" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -693,7 +1730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -709,65 +1746,65 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="11" t="n">
         <f>J2/F2</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I2" s="11">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <f t="shared" ref="I2" si="0">H2*G2</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J2" s="11">
         <v>400</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <f t="shared" ref="K2" si="1">J2*G2</f>
-        <v>400</v>
-      </c>
-      <c r="L2" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="L2" s="11" t="n">
         <f t="shared" ref="L2" si="2">J2+R2</f>
-        <v>464</v>
-      </c>
-      <c r="M2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="M2" s="11" t="n">
         <f t="shared" ref="M2" si="3">L2*G2</f>
-        <v>464</v>
-      </c>
-      <c r="N2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="N2" s="11" t="n">
         <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
         <v>573.6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="11" t="n">
         <f t="shared" ref="O2" si="5">N2*G2</f>
         <v>573.6</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="11" t="n">
         <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" s="11" t="n">
         <f t="shared" ref="Q2" si="7">P2*G2</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="R2" s="11" t="n">
         <f t="shared" ref="R2" si="8">J2*0.16</f>
-        <v>64</v>
-      </c>
-      <c r="S2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="S2" s="11" t="n">
         <f t="shared" ref="S2" si="9">R2*G2</f>
-        <v>64</v>
-      </c>
-      <c r="T2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <f t="shared" ref="T2" si="10">L2-H2-R2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="11" t="n">
         <f t="shared" ref="U2" si="11">T2*G2</f>
         <v>194.52054794520552</v>
       </c>
@@ -778,7 +1815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -787,239 +1824,434 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="15">
+      <c r="I3" s="15" t="n">
         <f>SUM(I2:I2)</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="15">
+      <c r="K3" s="15" t="n">
         <f>SUM(K2:K2)</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="L3" s="14"/>
-      <c r="M3" s="15">
+      <c r="M3" s="15" t="n">
         <f>SUM(M2:M2)</f>
-        <v>464</v>
+        <v>464.0</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="15">
+      <c r="O3" s="15" t="n">
         <f>SUM(O2:O2)</f>
         <v>573.6</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="n">
         <f>SUM(Q2:Q2)</f>
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="R3" s="14"/>
-      <c r="S3" s="15">
+      <c r="S3" s="15" t="n">
         <f>SUM(S2:S2)</f>
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="15">
+      <c r="U3" s="15" t="n">
         <f>SUM(U2:U2)</f>
         <v>194.52054794520552</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
-    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:W3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="86">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="87">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="88">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="89">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="90">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="100">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="96">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="97">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="98">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="99">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="101">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="102">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="103">
+        <v>4036.7999999999997</v>
+      </c>
+      <c r="N2" t="n" s="104">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="105">
+        <v>6962.32</v>
+      </c>
+      <c r="P2" t="n" s="106">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="107">
+        <v>895.52</v>
+      </c>
+      <c r="R2" t="n" s="108">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="109">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="110">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="111">
+        <v>1913.9999999999995</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="18"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="39"/>
+      <c r="I3" t="n" s="112">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="45"/>
+      <c r="K3" t="n" s="113">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="51"/>
+      <c r="M3" t="n" s="114">
+        <f>SUM(M2:M2)</f>
+        <v>4036.7999999999997</v>
+      </c>
+      <c r="N3" s="57"/>
+      <c r="O3" t="n" s="115">
+        <f>SUM(O2:O2)</f>
+        <v>6962.32</v>
+      </c>
+      <c r="P3" s="63"/>
+      <c r="Q3" t="n" s="116">
+        <f>SUM(Q2:Q2)</f>
+        <v>895.52</v>
+      </c>
+      <c r="R3" s="69"/>
+      <c r="S3" t="n" s="117">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="75"/>
+      <c r="U3" t="n" s="118">
+        <f>SUM(U2:U2)</f>
+        <v>1913.9999999999995</v>
+      </c>
+      <c r="V3" s="81"/>
+      <c r="W3" s="84"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAECD4D-B66D-4D26-956D-5541822A9E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA17937-6ED9-415A-B4CF-9BE2420DEA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>EPIC OIL 60ML</t>
+  </si>
+  <si>
+    <t>LUBRICANTE DE ALTO RENDIMIENTO - PARA: CADENA, DESVIADORES, FUNDAS DE CABLE, ETC. - FACIL APLICACIÓN - TIPO GOTERO - NUEVO</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t>MORELIA, MICHOACÀN</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="74" x14ac:knownFonts="1">
+  <fonts count="97" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +247,144 @@
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -715,7 +865,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -766,12 +916,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1001,25 +1166,94 @@
     <xf numFmtId="165" fontId="66" fillId="13" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="67" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="68" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="69" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="70" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="71" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="72" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="73" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="75" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="76" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="77" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="78" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="79" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="80" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="81" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="82" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="83" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="84" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="86" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="87" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="88" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="89" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="92" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="93" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="94" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1718,23 +1952,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="15.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="53.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
@@ -1808,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -1873,51 +2109,122 @@
         <v>1913.9999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="77">
-        <f>SUM(I2:I2)</f>
-        <v>27</v>
-      </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="78">
-        <f>SUM(K2:K2)</f>
-        <v>60</v>
-      </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="79">
-        <f>SUM(M2:M2)</f>
-        <v>4036.7999999999997</v>
-      </c>
-      <c r="N3" s="40"/>
-      <c r="O3" s="80">
-        <f>SUM(O2:O2)</f>
-        <v>6962.32</v>
-      </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="81">
-        <f>SUM(Q2:Q2)</f>
-        <v>895.52</v>
-      </c>
-      <c r="R3" s="46"/>
-      <c r="S3" s="82">
-        <f>SUM(S2:S2)</f>
-        <v>9.6</v>
-      </c>
-      <c r="T3" s="49"/>
-      <c r="U3" s="83">
-        <f>SUM(U2:U2)</f>
-        <v>1913.9999999999995</v>
-      </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="54"/>
+    <row r="3" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="86">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G3" s="82">
+        <v>1</v>
+      </c>
+      <c r="H3" s="83">
+        <v>14.96</v>
+      </c>
+      <c r="I3" s="84">
+        <v>14.96</v>
+      </c>
+      <c r="J3" s="85">
+        <v>30</v>
+      </c>
+      <c r="K3" s="87">
+        <v>30</v>
+      </c>
+      <c r="L3" s="88">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M3" s="89">
+        <v>6716.4</v>
+      </c>
+      <c r="N3" s="90">
+        <v>80.02</v>
+      </c>
+      <c r="O3" s="91">
+        <v>15443.859999999999</v>
+      </c>
+      <c r="P3" s="92">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q3" s="93">
+        <v>1972.4599999999998</v>
+      </c>
+      <c r="R3" s="94">
+        <v>4.8</v>
+      </c>
+      <c r="S3" s="95">
+        <v>4.8</v>
+      </c>
+      <c r="T3" s="96">
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U3" s="97">
+        <v>2902.7199999999993</v>
+      </c>
+      <c r="V3" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="106" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="98">
+        <f>SUM(I2:I3)</f>
+        <v>41.96</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="99">
+        <f>SUM(K2:K3)</f>
+        <v>90</v>
+      </c>
+      <c r="L4" s="37"/>
+      <c r="M4" s="100">
+        <f>SUM(M2:M3)</f>
+        <v>10753.199999999999</v>
+      </c>
+      <c r="N4" s="40"/>
+      <c r="O4" s="101">
+        <f>SUM(O2:O3)</f>
+        <v>22406.18</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="102">
+        <f>SUM(Q2:Q3)</f>
+        <v>2867.9799999999996</v>
+      </c>
+      <c r="R4" s="46"/>
+      <c r="S4" s="103">
+        <f>SUM(S2:S3)</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="T4" s="49"/>
+      <c r="U4" s="104">
+        <f>SUM(U2:U3)</f>
+        <v>4816.7199999999993</v>
+      </c>
+      <c r="V4" s="52"/>
+      <c r="W4" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -15,10 +15,13 @@
   <sheets>
     <sheet name="ENRIQUE OROZCO LUEVANO" sheetId="1" r:id="rId1"/>
     <sheet name="PACO CHAVEZ" sheetId="2" r:id="rId2"/>
+    <sheet name="Nuevo Cliente" r:id="rId7" sheetId="3"/>
+    <sheet name="ALEXIS NAVARRO" r:id="rId8" sheetId="4"/>
+    <sheet name="ALETS" r:id="rId9" sheetId="5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -185,17 +188,93 @@
   </si>
   <si>
     <t>MORELIA, MICHOACÀN</t>
+  </si>
+  <si>
+    <t>POTENCIA FUJI</t>
+  </si>
+  <si>
+    <t>ALTURA REGULABLE - PARA MANUBRIO 25.4mm - 15cm DE LARGO - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666668</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>128.42465753424656</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>FRENO HIDRAULICO DELANTERO SHIMANO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDRAULICO - PASTILLAS EN PERFECTO ESTADO - DELANTERO - SEMINUEVO </t>
+  </si>
+  <si>
+    <t>256.8493150684931</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>PARRAL</t>
+  </si>
+  <si>
+    <t>GUANTES BELL CORTO</t>
+  </si>
+  <si>
+    <t>ACOLCHONADOS EN PALMAS - TALLA S/M - NUEVOS</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>BICICLETA MORADA</t>
+  </si>
+  <si>
+    <t>ES MORADA</t>
+  </si>
+  <si>
+    <t>Nuevo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>ARANCHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="97" x14ac:knownFonts="1">
+  <fonts count="428" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,8 +867,1994 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,8 +2929,23 @@
         <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -931,12 +3011,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,6 +3352,999 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="96" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="97" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="98" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="100" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="101" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="103" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="104" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="106" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="107" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="109" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="110" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="112" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="113" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="115" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="116" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="118" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="119" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="121" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="122" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="124" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="125" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="127" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="128" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="130" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="131" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="133" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="134" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="136" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="137" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="139" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="140" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="142" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="143" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="145" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="146" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="148" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="149" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="151" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="152" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="154" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="155" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="157" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="158" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="160" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="161" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="163" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="164" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="177" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="178" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="179" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="180" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="192" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="193" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="194" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="195" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="196" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="197" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="198" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="199" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="200" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="201" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="202" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="203" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="204" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="205" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="206" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="207" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="208" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="209" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="210" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="211" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="212" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="213" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="217" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="218" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="220" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="221" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="223" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="224" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="226" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="227" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="230" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="232" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="233" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="235" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="236" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="238" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="239" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="241" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="242" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="244" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="245" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="247" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="248" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="250" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="251" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="253" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="254" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="256" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="257" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="259" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="260" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="262" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="263" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="265" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="266" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="268" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="269" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="271" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="272" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="274" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="275" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="277" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="278" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="280" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="281" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="283" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="284" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="297" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="298" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="299" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="300" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="301" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="302" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="303" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="304" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="305" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="306" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="307" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="308" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="309" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="310" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="311" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="312" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="313" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="314" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="315" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="316" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="317" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="321" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="322" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="324" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="325" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="327" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="328" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="330" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="331" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="333" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="334" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="336" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="337" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="339" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="340" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="342" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="343" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="345" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="346" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="348" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="349" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="351" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="352" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="354" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="355" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="357" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="360" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="361" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="363" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="364" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="366" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="367" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="369" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="370" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="372" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="373" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="375" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="376" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="378" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="379" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="381" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="382" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="384" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="385" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="387" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="388" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="390" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="391" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="404" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="405" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="406" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="407" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="408" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="409" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="410" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="411" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="412" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="413" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="414" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="415" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="416" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="417" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="418" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="419" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="420" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="421" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="422" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="423" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="424" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1545,9 +4636,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="21" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="21" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="22" max="23" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -1635,65 +4726,65 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="11" t="n">
         <f>J2/F2</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I2" s="11">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <f t="shared" ref="I2" si="0">H2*G2</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J2" s="11">
         <v>400</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <f t="shared" ref="K2" si="1">J2*G2</f>
-        <v>400</v>
-      </c>
-      <c r="L2" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="L2" s="11" t="n">
         <f t="shared" ref="L2" si="2">J2+R2</f>
-        <v>464</v>
-      </c>
-      <c r="M2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="M2" s="11" t="n">
         <f t="shared" ref="M2" si="3">L2*G2</f>
-        <v>464</v>
-      </c>
-      <c r="N2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="N2" s="11" t="n">
         <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
         <v>573.6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="11" t="n">
         <f t="shared" ref="O2" si="5">N2*G2</f>
         <v>573.6</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="11" t="n">
         <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" s="11" t="n">
         <f t="shared" ref="Q2" si="7">P2*G2</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="R2" s="11" t="n">
         <f t="shared" ref="R2" si="8">J2*0.16</f>
-        <v>64</v>
-      </c>
-      <c r="S2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="S2" s="11" t="n">
         <f t="shared" ref="S2" si="9">R2*G2</f>
-        <v>64</v>
-      </c>
-      <c r="T2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <f t="shared" ref="T2" si="10">L2-H2-R2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="11" t="n">
         <f t="shared" ref="U2" si="11">T2*G2</f>
         <v>194.52054794520552</v>
       </c>
@@ -1713,37 +4804,37 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="15">
+      <c r="I3" s="15" t="n">
         <f>SUM(I2:I2)</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="15">
+      <c r="K3" s="15" t="n">
         <f>SUM(K2:K2)</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="L3" s="14"/>
-      <c r="M3" s="15">
+      <c r="M3" s="15" t="n">
         <f>SUM(M2:M2)</f>
-        <v>464</v>
+        <v>464.0</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="15">
+      <c r="O3" s="15" t="n">
         <f>SUM(O2:O2)</f>
         <v>573.6</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="n">
         <f>SUM(Q2:Q2)</f>
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="R3" s="14"/>
-      <c r="S3" s="15">
+      <c r="S3" s="15" t="n">
         <f>SUM(S2:S2)</f>
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="15">
+      <c r="U3" s="15" t="n">
         <f>SUM(U2:U2)</f>
         <v>194.52054794520552</v>
       </c>
@@ -1960,17 +5051,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="27.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.21875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.109375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="27.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
@@ -2189,39 +5280,39 @@
       <c r="F4" s="27"/>
       <c r="G4" s="29"/>
       <c r="H4" s="31"/>
-      <c r="I4" s="98">
+      <c r="I4" s="98" t="n">
         <f>SUM(I2:I3)</f>
         <v>41.96</v>
       </c>
       <c r="J4" s="34"/>
-      <c r="K4" s="99">
+      <c r="K4" s="99" t="n">
         <f>SUM(K2:K3)</f>
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="L4" s="37"/>
-      <c r="M4" s="100">
+      <c r="M4" s="100" t="n">
         <f>SUM(M2:M3)</f>
         <v>10753.199999999999</v>
       </c>
       <c r="N4" s="40"/>
-      <c r="O4" s="101">
+      <c r="O4" s="101" t="n">
         <f>SUM(O2:O3)</f>
         <v>22406.18</v>
       </c>
       <c r="P4" s="43"/>
-      <c r="Q4" s="102">
+      <c r="Q4" s="102" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>2867.9799999999996</v>
       </c>
       <c r="R4" s="46"/>
-      <c r="S4" s="103">
+      <c r="S4" s="103" t="n">
         <f>SUM(S2:S3)</f>
         <v>14.399999999999999</v>
       </c>
       <c r="T4" s="49"/>
-      <c r="U4" s="104">
+      <c r="U4" s="104" t="n">
         <f>SUM(U2:U3)</f>
-        <v>4816.7199999999993</v>
+        <v>4816.719999999999</v>
       </c>
       <c r="V4" s="52"/>
       <c r="W4" s="54"/>
@@ -2229,4 +5320,646 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="109" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="133" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="139" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="142" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="145" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="151" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="154" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="157" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="160" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="166" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="169" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="176">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s" s="177">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s" s="178">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="179">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="180">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="190">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G2" t="n" s="186">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="187">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I2" t="n" s="188">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J2" t="n" s="189">
+        <v>250.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="191">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s" s="192">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s" s="193">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s" s="194">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="195">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="205">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G3" t="n" s="201">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="202">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I3" t="n" s="203">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="J3" t="n" s="204">
+        <v>500.0</v>
+      </c>
+      <c r="K3" t="n" s="206">
+        <v>500.0</v>
+      </c>
+      <c r="L3" t="n" s="207">
+        <v>580.0</v>
+      </c>
+      <c r="M3" t="n" s="208">
+        <v>580.0</v>
+      </c>
+      <c r="N3" t="n" s="209">
+        <v>707.0</v>
+      </c>
+      <c r="O3" t="n" s="210">
+        <v>707.0</v>
+      </c>
+      <c r="P3" t="n" s="211">
+        <v>92.0</v>
+      </c>
+      <c r="Q3" t="n" s="212">
+        <v>92.0</v>
+      </c>
+      <c r="R3" t="n" s="213">
+        <v>80.0</v>
+      </c>
+      <c r="S3" t="n" s="214">
+        <v>80.0</v>
+      </c>
+      <c r="T3" t="n" s="215">
+        <v>243.15068493150687</v>
+      </c>
+      <c r="U3" t="n" s="216">
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V3" t="s" s="224">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s" s="225">
+        <v>61</v>
+      </c>
+      <c r="X3" t="n" s="226">
+        <v>35.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="108"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="129"/>
+      <c r="I4" t="n" s="217">
+        <f>SUM(I2:I3)</f>
+        <v>385.2739726027397</v>
+      </c>
+      <c r="J4" s="135"/>
+      <c r="K4" t="n" s="218">
+        <f>SUM(K2:K3)</f>
+        <v>500.0</v>
+      </c>
+      <c r="L4" s="141"/>
+      <c r="M4" t="n" s="219">
+        <f>SUM(M2:M3)</f>
+        <v>580.0</v>
+      </c>
+      <c r="N4" s="147"/>
+      <c r="O4" t="n" s="220">
+        <f>SUM(O2:O3)</f>
+        <v>707.0</v>
+      </c>
+      <c r="P4" s="153"/>
+      <c r="Q4" t="n" s="221">
+        <f>SUM(Q2:Q3)</f>
+        <v>92.0</v>
+      </c>
+      <c r="R4" s="159"/>
+      <c r="S4" t="n" s="222">
+        <f>SUM(S2:S3)</f>
+        <v>80.0</v>
+      </c>
+      <c r="T4" s="165"/>
+      <c r="U4" t="n" s="223">
+        <f>SUM(U2:U3)</f>
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V4" s="171"/>
+      <c r="W4" s="174"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="229" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="232" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="235" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="238" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="241" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="244" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="247" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="250" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="253" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="256" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="259" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="262" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="265" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="268" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="271" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="274" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="277" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="280" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="283" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="286" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="289" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="292" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="296">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s" s="297">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s" s="298">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="299">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="300">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="310">
+        <v>3.0</v>
+      </c>
+      <c r="G2" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="307">
+        <v>50.0</v>
+      </c>
+      <c r="I2" t="n" s="308">
+        <v>50.0</v>
+      </c>
+      <c r="J2" t="n" s="309">
+        <v>150.0</v>
+      </c>
+      <c r="L2" t="n" s="311">
+        <v>174.0</v>
+      </c>
+      <c r="M2" t="n" s="312">
+        <v>348.0</v>
+      </c>
+      <c r="N2" t="n" s="313">
+        <v>240.1</v>
+      </c>
+      <c r="O2" t="n" s="314">
+        <v>480.2</v>
+      </c>
+      <c r="P2" t="n" s="315">
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q2" t="n" s="316">
+        <v>62.199999999999996</v>
+      </c>
+      <c r="R2" t="n" s="317">
+        <v>24.0</v>
+      </c>
+      <c r="S2" t="n" s="318">
+        <v>24.0</v>
+      </c>
+      <c r="T2" t="n" s="319">
+        <v>100.0</v>
+      </c>
+      <c r="U2" t="n" s="320">
+        <v>200.0</v>
+      </c>
+      <c r="V2" t="s" s="328">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="329">
+        <v>61</v>
+      </c>
+      <c r="X2" t="n" s="330">
+        <v>36.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="228"/>
+      <c r="B3" s="231"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="243"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="249"/>
+      <c r="I3" t="n" s="321">
+        <f>SUM(I2:I2)</f>
+        <v>50.0</v>
+      </c>
+      <c r="J3" s="255"/>
+      <c r="K3" t="n" s="322">
+        <f>SUM(K2:K2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="261"/>
+      <c r="M3" t="n" s="323">
+        <f>SUM(M2:M2)</f>
+        <v>348.0</v>
+      </c>
+      <c r="N3" s="267"/>
+      <c r="O3" t="n" s="324">
+        <f>SUM(O2:O2)</f>
+        <v>480.2</v>
+      </c>
+      <c r="P3" s="273"/>
+      <c r="Q3" t="n" s="325">
+        <f>SUM(Q2:Q2)</f>
+        <v>62.199999999999996</v>
+      </c>
+      <c r="R3" s="279"/>
+      <c r="S3" t="n" s="326">
+        <f>SUM(S2:S2)</f>
+        <v>24.0</v>
+      </c>
+      <c r="T3" s="285"/>
+      <c r="U3" t="n" s="327">
+        <f>SUM(U2:U2)</f>
+        <v>200.0</v>
+      </c>
+      <c r="V3" s="291"/>
+      <c r="W3" s="294"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="333" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="336" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="339" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="342" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="345" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="348" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="351" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="354" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="357" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="360" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="363" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="366" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="372" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="375" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="378" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="381" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="384" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="387" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="390" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="393" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="399" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="402" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="403">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s" s="404">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s" s="405">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="406">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s" s="407">
+        <v>71</v>
+      </c>
+      <c r="F2" t="n" s="417">
+        <v>0.06</v>
+      </c>
+      <c r="G2" t="n" s="413">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="414">
+        <v>1000.0</v>
+      </c>
+      <c r="I2" t="n" s="415">
+        <v>1000.0</v>
+      </c>
+      <c r="J2" t="n" s="416">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="418">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="419">
+        <v>4106.4</v>
+      </c>
+      <c r="N2" t="n" s="420">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="421">
+        <v>7082.36</v>
+      </c>
+      <c r="P2" t="n" s="422">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="423">
+        <v>910.9599999999999</v>
+      </c>
+      <c r="R2" t="n" s="424">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="425">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="426">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="427">
+        <v>1946.9999999999995</v>
+      </c>
+      <c r="V2" t="s" s="435">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="436">
+        <v>75</v>
+      </c>
+      <c r="X2" t="n" s="437">
+        <v>37.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="332"/>
+      <c r="B3" s="335"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="344"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="350"/>
+      <c r="H3" s="353"/>
+      <c r="I3" t="n" s="428">
+        <f>SUM(I2:I2)</f>
+        <v>1000.0</v>
+      </c>
+      <c r="J3" s="359"/>
+      <c r="K3" t="n" s="429">
+        <f>SUM(K2:K2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="365"/>
+      <c r="M3" t="n" s="430">
+        <f>SUM(M2:M2)</f>
+        <v>4106.4</v>
+      </c>
+      <c r="N3" s="371"/>
+      <c r="O3" t="n" s="431">
+        <f>SUM(O2:O2)</f>
+        <v>7082.36</v>
+      </c>
+      <c r="P3" s="377"/>
+      <c r="Q3" t="n" s="432">
+        <f>SUM(Q2:Q2)</f>
+        <v>910.9599999999999</v>
+      </c>
+      <c r="R3" s="383"/>
+      <c r="S3" t="n" s="433">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="389"/>
+      <c r="U3" t="n" s="434">
+        <f>SUM(U2:U2)</f>
+        <v>1946.9999999999995</v>
+      </c>
+      <c r="V3" s="395"/>
+      <c r="W3" s="398"/>
+      <c r="X3" s="401"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Nuevo Cliente" r:id="rId7" sheetId="3"/>
     <sheet name="ALEXIS NAVARRO" r:id="rId8" sheetId="4"/>
     <sheet name="ALETS" r:id="rId9" sheetId="5"/>
+    <sheet name="FERNANDO" r:id="rId10" sheetId="6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -263,6 +264,24 @@
   </si>
   <si>
     <t>ARANCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINES MAVIC F219 26" </t>
+  </si>
+  <si>
+    <t>RODADO 26" - MASAS DE BALERO SELLADO - SERVICIO RECIEN HECHO - GRASA DE LITIO - PIÑON DE 9s - PAR DE RINES - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666665</t>
+  </si>
+  <si>
+    <t>1130.13698630137</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>CHIHUAHA</t>
   </si>
 </sst>
 </file>
@@ -274,7 +293,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="428" x14ac:knownFonts="1">
+  <fonts count="535" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +885,648 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3034,7 +3695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="438">
+  <cellXfs count="545">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4345,6 +5006,327 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="427" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="428" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="429" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="431" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="432" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="434" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="435" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="437" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="438" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="440" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="441" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="443" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="444" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="446" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="447" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="449" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="450" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="452" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="453" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="456" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="458" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="459" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="461" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="462" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="464" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="465" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="467" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="468" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="470" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="471" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="474" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="476" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="477" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="480" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="486" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="488" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="497" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="498" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="511" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="512" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="514" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="515" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="517" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="518" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="520" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="13" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="527" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="528" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="529" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="530" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="531" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5962,4 +6944,209 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="440" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="443" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="446" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="449" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="452" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="455" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="458" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="461" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="464" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="467" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="470" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="473" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="476" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="479" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="482" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="485" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="488" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="491" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="494" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="497" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="500" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="503" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="506" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="509" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="510">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s" s="511">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s" s="512">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s" s="513">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="514">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="524">
+        <v>1.9466666666666665</v>
+      </c>
+      <c r="G2" t="n" s="520">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="521">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="I2" t="n" s="522">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="J2" t="n" s="523">
+        <v>2200.0</v>
+      </c>
+      <c r="L2" t="n" s="525">
+        <v>2552.0</v>
+      </c>
+      <c r="M2" t="n" s="526">
+        <v>2552.0</v>
+      </c>
+      <c r="N2" t="n" s="527">
+        <v>2974.8</v>
+      </c>
+      <c r="O2" t="n" s="528">
+        <v>2974.8</v>
+      </c>
+      <c r="P2" t="n" s="529">
+        <v>387.8</v>
+      </c>
+      <c r="Q2" t="n" s="530">
+        <v>387.8</v>
+      </c>
+      <c r="R2" t="n" s="531">
+        <v>352.0</v>
+      </c>
+      <c r="S2" t="n" s="532">
+        <v>352.0</v>
+      </c>
+      <c r="T2" t="n" s="533">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="U2" t="n" s="534">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="V2" t="s" s="542">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="543">
+        <v>81</v>
+      </c>
+      <c r="X2" t="n" s="544">
+        <v>38.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="439"/>
+      <c r="B3" s="442"/>
+      <c r="C3" s="445"/>
+      <c r="D3" s="448"/>
+      <c r="E3" s="451"/>
+      <c r="F3" s="454"/>
+      <c r="G3" s="457"/>
+      <c r="H3" s="460"/>
+      <c r="I3" t="n" s="535">
+        <f>SUM(I2:I2)</f>
+        <v>1130.13698630137</v>
+      </c>
+      <c r="J3" s="466"/>
+      <c r="K3" t="n" s="536">
+        <f>SUM(K2:K2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="472"/>
+      <c r="M3" t="n" s="537">
+        <f>SUM(M2:M2)</f>
+        <v>2552.0</v>
+      </c>
+      <c r="N3" s="478"/>
+      <c r="O3" t="n" s="538">
+        <f>SUM(O2:O2)</f>
+        <v>2974.8</v>
+      </c>
+      <c r="P3" s="484"/>
+      <c r="Q3" t="n" s="539">
+        <f>SUM(Q2:Q2)</f>
+        <v>387.8</v>
+      </c>
+      <c r="R3" s="490"/>
+      <c r="S3" t="n" s="540">
+        <f>SUM(S2:S2)</f>
+        <v>352.0</v>
+      </c>
+      <c r="T3" s="496"/>
+      <c r="U3" t="n" s="541">
+        <f>SUM(U2:U2)</f>
+        <v>1069.86301369863</v>
+      </c>
+      <c r="V3" s="502"/>
+      <c r="W3" s="505"/>
+      <c r="X3" s="508"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E8844B-37E5-47F6-A35E-1EFCD95B90F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8819B478-835B-4132-8FFB-48FD733681C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENRIQUE OROZCO LUEVANO" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,22 @@
     <sheet name="ALEXIS NAVARRO" sheetId="4" r:id="rId4"/>
     <sheet name="ALETS" sheetId="5" r:id="rId5"/>
     <sheet name="FERNANDO" sheetId="6" r:id="rId6"/>
+    <sheet name="ALEX BACA" sheetId="7" r:id="rId7"/>
+    <sheet name="FRANCISCO BENCOMO" r:id="rId12" sheetId="8"/>
+    <sheet name="franciasco chavez" r:id="rId13" sheetId="9"/>
+    <sheet name="Juanito " r:id="rId14" sheetId="10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -238,16 +244,89 @@
   <si>
     <t>CHIHUAHA</t>
   </si>
+  <si>
+    <t>13  AGOSTO</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA</t>
+  </si>
+  <si>
+    <t>agosto</t>
+  </si>
+  <si>
+    <t>2.2222222222222223</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CUAHUTEMOC</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SHIMANO RUTA</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS DE RUTA - PARA TIRON DE CABLE DEBAJO DEL CUADRO - USADO</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>parral</t>
+  </si>
+  <si>
+    <t>2.0053475935828877</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>29.92</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>kajskajskja</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="839" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2586,8 +2665,2714 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2662,8 +5447,23 @@
         <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2744,12 +5544,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="850">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3942,10 +6775,1366 @@
     <xf numFmtId="0" fontId="387" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="388" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="390" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="391" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="393" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="395" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="397" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="399" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="401" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="404" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="407" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="410" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="413" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="416" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="419" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="422" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="424" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="426" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="434" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="435" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="436" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="437" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="438" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="439" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="440" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="441" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="442" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="443" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="444" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="445" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="446" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="447" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="457" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="458" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="459" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="460" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="461" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="462" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="463" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="464" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="465" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="466" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="467" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="468" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="469" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="470" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="471" fillId="13" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="472" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="473" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="474" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="475" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="476" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="477" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="478" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="482" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="483" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="486" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="488" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="489" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="492" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="494" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="495" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="497" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="498" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="500" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="501" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="503" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="506" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="507" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="509" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="510" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="512" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="515" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="518" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="521" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="524" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="527" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="528" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="530" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="531" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="533" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="534" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="536" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="537" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="539" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="540" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="542" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="543" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="545" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="546" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="549" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="551" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="552" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="564" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="571" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="573" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="575" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="576" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="577" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="579" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="581" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="583" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="584" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="585" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="589" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="593" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="595" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="599" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="601" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="605" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="607" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="608" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="610" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="611" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="613" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="614" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="617" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="619" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="620" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="623" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="625" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="626" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="629" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="631" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="632" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="635" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="637" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="638" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="641" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="643" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="644" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="647" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="649" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="650" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="653" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="655" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="656" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="659" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="672" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="673" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="674" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="675" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="676" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="677" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="678" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="679" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="680" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="681" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="682" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="683" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="684" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="685" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="686" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="687" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="688" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="691" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="718" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="719" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="720" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="721" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="722" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="723" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="724" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="725" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="726" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="727" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="728" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="732" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="733" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="738" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="760" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="762" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="763" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="766" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="768" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="772" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="774" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="778" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="780" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="784" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="786" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="787" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="789" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="790" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="792" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="796" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="798" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="799" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="802" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="815" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="816" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="817" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="818" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="820" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="821" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="822" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="823" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="824" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="826" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="827" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="828" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="829" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="830" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="832" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="833" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="834" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="835" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="836" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="837" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="838" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4229,14 +8418,14 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="21" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="40.7109375" collapsed="true"/>
+    <col min="3" max="21" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="22" max="23" customWidth="true" width="40.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -4305,7 +8494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -4321,65 +8510,65 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="11" t="n">
         <f>J2/F2</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I2" s="11">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <f t="shared" ref="I2" si="0">H2*G2</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J2" s="11">
         <v>400</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <f t="shared" ref="K2" si="1">J2*G2</f>
-        <v>400</v>
-      </c>
-      <c r="L2" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="L2" s="11" t="n">
         <f t="shared" ref="L2" si="2">J2+R2</f>
-        <v>464</v>
-      </c>
-      <c r="M2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="M2" s="11" t="n">
         <f t="shared" ref="M2" si="3">L2*G2</f>
-        <v>464</v>
-      </c>
-      <c r="N2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="N2" s="11" t="n">
         <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
         <v>573.6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="11" t="n">
         <f t="shared" ref="O2" si="5">N2*G2</f>
         <v>573.6</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="11" t="n">
         <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" s="11" t="n">
         <f t="shared" ref="Q2" si="7">P2*G2</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="R2" s="11" t="n">
         <f t="shared" ref="R2" si="8">J2*0.16</f>
-        <v>64</v>
-      </c>
-      <c r="S2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="S2" s="11" t="n">
         <f t="shared" ref="S2" si="9">R2*G2</f>
-        <v>64</v>
-      </c>
-      <c r="T2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <f t="shared" ref="T2" si="10">L2-H2-R2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="11" t="n">
         <f t="shared" ref="U2" si="11">T2*G2</f>
         <v>194.52054794520552</v>
       </c>
@@ -4390,7 +8579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
@@ -4399,240 +8588,445 @@
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
-      <c r="I3" s="15">
+      <c r="I3" s="15" t="n">
         <f>SUM(I2:I2)</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J3" s="14"/>
-      <c r="K3" s="15">
+      <c r="K3" s="15" t="n">
         <f>SUM(K2:K2)</f>
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="L3" s="14"/>
-      <c r="M3" s="15">
+      <c r="M3" s="15" t="n">
         <f>SUM(M2:M2)</f>
-        <v>464</v>
+        <v>464.0</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="15">
+      <c r="O3" s="15" t="n">
         <f>SUM(O2:O2)</f>
         <v>573.6</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="15">
+      <c r="Q3" s="15" t="n">
         <f>SUM(Q2:Q2)</f>
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="R3" s="14"/>
-      <c r="S3" s="15">
+      <c r="S3" s="15" t="n">
         <f>SUM(S2:S2)</f>
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="T3" s="14"/>
-      <c r="U3" s="15">
+      <c r="U3" s="15" t="n">
         <f>SUM(U2:U2)</f>
         <v>194.52054794520552</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="14"/>
     </row>
-    <row r="4" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="745" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="748" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="751" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="754" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="757" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="760" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="763" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="766" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="769" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="772" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="775" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="778" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="781" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="784" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="787" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="790" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="793" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="796" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="799" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="802" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="805" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="808" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="811" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="814" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="815">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="816">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="817">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="818">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="819">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="829">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="825">
+        <v>10.0</v>
+      </c>
+      <c r="H2" t="n" s="826">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="827">
+        <v>270.0</v>
+      </c>
+      <c r="J2" t="n" s="828">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="830">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="831">
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N2" t="n" s="832">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="833">
+        <v>6002.0</v>
+      </c>
+      <c r="P2" t="n" s="834">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="835">
+        <v>772.0</v>
+      </c>
+      <c r="R2" t="n" s="836">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="837">
+        <v>96.0</v>
+      </c>
+      <c r="T2" t="n" s="838">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="839">
+        <v>1649.9999999999995</v>
+      </c>
+      <c r="V2" t="s" s="847">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="848">
+        <v>90</v>
+      </c>
+      <c r="X2" t="n" s="849">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="744"/>
+      <c r="B3" s="747"/>
+      <c r="C3" s="750"/>
+      <c r="D3" s="753"/>
+      <c r="E3" s="756"/>
+      <c r="F3" s="759"/>
+      <c r="G3" s="762"/>
+      <c r="H3" s="765"/>
+      <c r="I3" t="n" s="840">
+        <f>SUM(I2:I2)</f>
+        <v>270.0</v>
+      </c>
+      <c r="J3" s="771"/>
+      <c r="K3" t="n" s="841">
+        <f>SUM(K2:K2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="777"/>
+      <c r="M3" t="n" s="842">
+        <f>SUM(M2:M2)</f>
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N3" s="783"/>
+      <c r="O3" t="n" s="843">
+        <f>SUM(O2:O2)</f>
+        <v>6002.0</v>
+      </c>
+      <c r="P3" s="789"/>
+      <c r="Q3" t="n" s="844">
+        <f>SUM(Q2:Q2)</f>
+        <v>772.0</v>
+      </c>
+      <c r="R3" s="795"/>
+      <c r="S3" t="n" s="845">
+        <f>SUM(S2:S2)</f>
+        <v>96.0</v>
+      </c>
+      <c r="T3" s="801"/>
+      <c r="U3" t="n" s="846">
+        <f>SUM(U2:U2)</f>
+        <v>1649.9999999999995</v>
+      </c>
+      <c r="V3" s="807"/>
+      <c r="W3" s="810"/>
+      <c r="X3" s="813"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -4640,26 +9034,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.21875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.77734375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="29.44140625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="27.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>28</v>
       </c>
@@ -4730,7 +9124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -4795,7 +9189,7 @@
         <v>1913.9999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>47</v>
       </c>
@@ -4866,7 +9260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="19"/>
       <c r="C4" s="21"/>
@@ -4875,39 +9269,39 @@
       <c r="F4" s="27"/>
       <c r="G4" s="29"/>
       <c r="H4" s="31"/>
-      <c r="I4" s="98">
+      <c r="I4" s="98" t="n">
         <f>SUM(I2:I3)</f>
         <v>41.96</v>
       </c>
       <c r="J4" s="34"/>
-      <c r="K4" s="99">
+      <c r="K4" s="99" t="n">
         <f>SUM(K2:K3)</f>
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="L4" s="37"/>
-      <c r="M4" s="100">
+      <c r="M4" s="100" t="n">
         <f>SUM(M2:M3)</f>
         <v>10753.199999999999</v>
       </c>
       <c r="N4" s="40"/>
-      <c r="O4" s="101">
+      <c r="O4" s="101" t="n">
         <f>SUM(O2:O3)</f>
         <v>22406.18</v>
       </c>
       <c r="P4" s="43"/>
-      <c r="Q4" s="102">
+      <c r="Q4" s="102" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>2867.9799999999996</v>
       </c>
       <c r="R4" s="46"/>
-      <c r="S4" s="103">
+      <c r="S4" s="103" t="n">
         <f>SUM(S2:S3)</f>
         <v>14.399999999999999</v>
       </c>
       <c r="T4" s="49"/>
-      <c r="U4" s="104">
+      <c r="U4" s="104" t="n">
         <f>SUM(U2:U3)</f>
-        <v>4816.7199999999993</v>
+        <v>4816.719999999999</v>
       </c>
       <c r="V4" s="52"/>
       <c r="W4" s="54"/>
@@ -4923,9 +9317,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
         <v>28</v>
       </c>
@@ -4996,7 +9390,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="146" t="s">
         <v>51</v>
       </c>
@@ -5028,7 +9422,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="156" t="s">
         <v>53</v>
       </c>
@@ -5102,7 +9496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="107"/>
       <c r="B4" s="109"/>
       <c r="C4" s="111"/>
@@ -5111,37 +9505,37 @@
       <c r="F4" s="117"/>
       <c r="G4" s="119"/>
       <c r="H4" s="121"/>
-      <c r="I4" s="177">
+      <c r="I4" s="177" t="n">
         <f>SUM(I2:I3)</f>
-        <v>385.27397260273972</v>
+        <v>385.2739726027397</v>
       </c>
       <c r="J4" s="124"/>
-      <c r="K4" s="178">
+      <c r="K4" s="178" t="n">
         <f>SUM(K2:K3)</f>
-        <v>500</v>
+        <v>500.0</v>
       </c>
       <c r="L4" s="127"/>
-      <c r="M4" s="179">
+      <c r="M4" s="179" t="n">
         <f>SUM(M2:M3)</f>
-        <v>580</v>
+        <v>580.0</v>
       </c>
       <c r="N4" s="130"/>
-      <c r="O4" s="180">
+      <c r="O4" s="180" t="n">
         <f>SUM(O2:O3)</f>
-        <v>707</v>
+        <v>707.0</v>
       </c>
       <c r="P4" s="133"/>
-      <c r="Q4" s="181">
+      <c r="Q4" s="181" t="n">
         <f>SUM(Q2:Q3)</f>
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="R4" s="136"/>
-      <c r="S4" s="182">
+      <c r="S4" s="182" t="n">
         <f>SUM(S2:S3)</f>
-        <v>80</v>
+        <v>80.0</v>
       </c>
       <c r="T4" s="139"/>
-      <c r="U4" s="183">
+      <c r="U4" s="183" t="n">
         <f>SUM(U2:U3)</f>
         <v>243.15068493150687</v>
       </c>
@@ -5159,9 +9553,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="188" t="s">
         <v>28</v>
       </c>
@@ -5232,7 +9626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="226" t="s">
         <v>56</v>
       </c>
@@ -5303,7 +9697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="187"/>
       <c r="B3" s="189"/>
       <c r="C3" s="191"/>
@@ -5312,39 +9706,39 @@
       <c r="F3" s="197"/>
       <c r="G3" s="199"/>
       <c r="H3" s="201"/>
-      <c r="I3" s="246">
+      <c r="I3" s="246" t="n">
         <f>SUM(I2:I2)</f>
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="J3" s="204"/>
-      <c r="K3" s="247">
+      <c r="K3" s="247" t="n">
         <f>SUM(K2:K2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="207"/>
-      <c r="M3" s="248">
+      <c r="M3" s="248" t="n">
         <f>SUM(M2:M2)</f>
-        <v>348</v>
+        <v>348.0</v>
       </c>
       <c r="N3" s="210"/>
-      <c r="O3" s="249">
+      <c r="O3" s="249" t="n">
         <f>SUM(O2:O2)</f>
         <v>480.2</v>
       </c>
       <c r="P3" s="213"/>
-      <c r="Q3" s="250">
+      <c r="Q3" s="250" t="n">
         <f>SUM(Q2:Q2)</f>
         <v>62.199999999999996</v>
       </c>
       <c r="R3" s="216"/>
-      <c r="S3" s="251">
+      <c r="S3" s="251" t="n">
         <f>SUM(S2:S2)</f>
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="T3" s="219"/>
-      <c r="U3" s="252">
+      <c r="U3" s="252" t="n">
         <f>SUM(U2:U2)</f>
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="V3" s="222"/>
       <c r="W3" s="224"/>
@@ -5360,9 +9754,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="257" t="s">
         <v>28</v>
       </c>
@@ -5436,7 +9830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="297" t="s">
         <v>59</v>
       </c>
@@ -5507,7 +9901,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="256"/>
       <c r="B3" s="258"/>
       <c r="C3" s="260"/>
@@ -5516,37 +9910,37 @@
       <c r="F3" s="266"/>
       <c r="G3" s="268"/>
       <c r="H3" s="270"/>
-      <c r="I3" s="317">
+      <c r="I3" s="317" t="n">
         <f>SUM(I2:I2)</f>
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="J3" s="273"/>
-      <c r="K3" s="318">
+      <c r="K3" s="318" t="n">
         <f>SUM(K2:K2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="276"/>
-      <c r="M3" s="319">
+      <c r="M3" s="319" t="n">
         <f>SUM(M2:M2)</f>
-        <v>4106.3999999999996</v>
+        <v>4106.4</v>
       </c>
       <c r="N3" s="279"/>
-      <c r="O3" s="320">
+      <c r="O3" s="320" t="n">
         <f>SUM(O2:O2)</f>
         <v>7082.36</v>
       </c>
       <c r="P3" s="282"/>
-      <c r="Q3" s="321">
+      <c r="Q3" s="321" t="n">
         <f>SUM(Q2:Q2)</f>
-        <v>910.95999999999992</v>
+        <v>910.9599999999999</v>
       </c>
       <c r="R3" s="285"/>
-      <c r="S3" s="322">
+      <c r="S3" s="322" t="n">
         <f>SUM(S2:S2)</f>
         <v>9.6</v>
       </c>
       <c r="T3" s="288"/>
-      <c r="U3" s="323">
+      <c r="U3" s="323" t="n">
         <f>SUM(U2:U2)</f>
         <v>1946.9999999999995</v>
       </c>
@@ -5565,9 +9959,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="328" t="s">
         <v>28</v>
       </c>
@@ -5641,7 +10035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="368" t="s">
         <v>64</v>
       </c>
@@ -5712,7 +10106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="327"/>
       <c r="B3" s="329"/>
       <c r="C3" s="331"/>
@@ -5721,39 +10115,39 @@
       <c r="F3" s="337"/>
       <c r="G3" s="339"/>
       <c r="H3" s="341"/>
-      <c r="I3" s="388">
+      <c r="I3" s="388" t="n">
         <f>SUM(I2:I2)</f>
-        <v>1130.1369863013699</v>
+        <v>1130.13698630137</v>
       </c>
       <c r="J3" s="344"/>
-      <c r="K3" s="389">
+      <c r="K3" s="389" t="n">
         <f>SUM(K2:K2)</f>
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L3" s="347"/>
-      <c r="M3" s="390">
+      <c r="M3" s="390" t="n">
         <f>SUM(M2:M2)</f>
-        <v>2552</v>
+        <v>2552.0</v>
       </c>
       <c r="N3" s="350"/>
-      <c r="O3" s="391">
+      <c r="O3" s="391" t="n">
         <f>SUM(O2:O2)</f>
         <v>2974.8</v>
       </c>
       <c r="P3" s="353"/>
-      <c r="Q3" s="392">
+      <c r="Q3" s="392" t="n">
         <f>SUM(Q2:Q2)</f>
         <v>387.8</v>
       </c>
       <c r="R3" s="356"/>
-      <c r="S3" s="393">
+      <c r="S3" s="393" t="n">
         <f>SUM(S2:S2)</f>
-        <v>352</v>
+        <v>352.0</v>
       </c>
       <c r="T3" s="359"/>
-      <c r="U3" s="394">
+      <c r="U3" s="394" t="n">
         <f>SUM(U2:U2)</f>
-        <v>1069.8630136986301</v>
+        <v>1069.86301369863</v>
       </c>
       <c r="V3" s="362"/>
       <c r="W3" s="364"/>
@@ -5762,4 +10156,769 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="399" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="402" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="404" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="406" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="408" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="410" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="412" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="413" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="415" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="416" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="418" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="419" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="421" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="422" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="424" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="425" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="427" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="428" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="430" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="431" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="433" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="435" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="437" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="438" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="439" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="440" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="441" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="442" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="447">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" s="443">
+        <v>1</v>
+      </c>
+      <c r="H2" s="444">
+        <v>27</v>
+      </c>
+      <c r="I2" s="445">
+        <v>27</v>
+      </c>
+      <c r="J2" s="446">
+        <v>60</v>
+      </c>
+      <c r="L2" s="448">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M2" s="449">
+        <v>3967.2</v>
+      </c>
+      <c r="N2" s="450">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" s="451">
+        <v>6842.28</v>
+      </c>
+      <c r="P2" s="452">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" s="453">
+        <v>880.07999999999993</v>
+      </c>
+      <c r="R2" s="454">
+        <v>9.6</v>
+      </c>
+      <c r="S2" s="455">
+        <v>9.6</v>
+      </c>
+      <c r="T2" s="456">
+        <v>32.999999999999993</v>
+      </c>
+      <c r="U2" s="457">
+        <v>1880.9999999999995</v>
+      </c>
+      <c r="V2" s="458" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="459" t="s">
+        <v>68</v>
+      </c>
+      <c r="X2" s="460">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="461" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="462" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="463" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="464" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="465" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="470">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G3" s="466">
+        <v>7</v>
+      </c>
+      <c r="H3" s="467">
+        <v>27</v>
+      </c>
+      <c r="I3" s="468">
+        <v>189</v>
+      </c>
+      <c r="J3" s="469">
+        <v>60</v>
+      </c>
+      <c r="K3" s="471">
+        <v>420</v>
+      </c>
+      <c r="L3" s="472">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M3" s="473">
+        <v>3967.2</v>
+      </c>
+      <c r="N3" s="474">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O3" s="475">
+        <v>6842.28</v>
+      </c>
+      <c r="P3" s="476">
+        <v>15.44</v>
+      </c>
+      <c r="Q3" s="477">
+        <v>880.07999999999993</v>
+      </c>
+      <c r="R3" s="478">
+        <v>9.6</v>
+      </c>
+      <c r="S3" s="479">
+        <v>67.2</v>
+      </c>
+      <c r="T3" s="480">
+        <v>32.999999999999993</v>
+      </c>
+      <c r="U3" s="481">
+        <v>1880.9999999999995</v>
+      </c>
+      <c r="V3" s="489" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="490" t="s">
+        <v>68</v>
+      </c>
+      <c r="X3" s="491">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="398"/>
+      <c r="B4" s="400"/>
+      <c r="C4" s="401"/>
+      <c r="D4" s="403"/>
+      <c r="E4" s="405"/>
+      <c r="F4" s="407"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="411"/>
+      <c r="I4" s="482" t="n">
+        <f>SUM(I2:I3)</f>
+        <v>216.0</v>
+      </c>
+      <c r="J4" s="414"/>
+      <c r="K4" s="483" t="n">
+        <f>SUM(K2:K3)</f>
+        <v>420.0</v>
+      </c>
+      <c r="L4" s="417"/>
+      <c r="M4" s="484" t="n">
+        <f>SUM(M2:M3)</f>
+        <v>7934.4</v>
+      </c>
+      <c r="N4" s="420"/>
+      <c r="O4" s="485" t="n">
+        <f>SUM(O2:O3)</f>
+        <v>13684.56</v>
+      </c>
+      <c r="P4" s="423"/>
+      <c r="Q4" s="486" t="n">
+        <f>SUM(Q2:Q3)</f>
+        <v>1760.1599999999999</v>
+      </c>
+      <c r="R4" s="426"/>
+      <c r="S4" s="487" t="n">
+        <f>SUM(S2:S3)</f>
+        <v>76.8</v>
+      </c>
+      <c r="T4" s="429"/>
+      <c r="U4" s="488" t="n">
+        <f>SUM(U2:U3)</f>
+        <v>3761.999999999999</v>
+      </c>
+      <c r="V4" s="432"/>
+      <c r="W4" s="434"/>
+      <c r="X4" s="436"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="495" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="498" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="501" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="504" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="507" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="510" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="513" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="516" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="519" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="522" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="525" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="528" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="531" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="534" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="537" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="540" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="543" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="546" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="549" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="552" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="555" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="558" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="561" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="564" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="565">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="566">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="567">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="568">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="569">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="579">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="575">
+        <v>5.0</v>
+      </c>
+      <c r="H2" t="n" s="576">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="577">
+        <v>135.0</v>
+      </c>
+      <c r="J2" t="n" s="578">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="580">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="581">
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N2" t="n" s="582">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="583">
+        <v>6002.0</v>
+      </c>
+      <c r="P2" t="n" s="584">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="585">
+        <v>772.0</v>
+      </c>
+      <c r="R2" t="n" s="586">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="587">
+        <v>48.0</v>
+      </c>
+      <c r="T2" t="n" s="588">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="589">
+        <v>1649.9999999999995</v>
+      </c>
+      <c r="V2" t="s" s="597">
+        <v>75</v>
+      </c>
+      <c r="W2" t="s" s="598">
+        <v>76</v>
+      </c>
+      <c r="X2" t="n" s="599">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="494"/>
+      <c r="B3" s="497"/>
+      <c r="C3" s="500"/>
+      <c r="D3" s="503"/>
+      <c r="E3" s="506"/>
+      <c r="F3" s="509"/>
+      <c r="G3" s="512"/>
+      <c r="H3" s="515"/>
+      <c r="I3" t="n" s="590">
+        <f>SUM(I2:I2)</f>
+        <v>135.0</v>
+      </c>
+      <c r="J3" s="521"/>
+      <c r="K3" t="n" s="591">
+        <f>SUM(K2:K2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="527"/>
+      <c r="M3" t="n" s="592">
+        <f>SUM(M2:M2)</f>
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N3" s="533"/>
+      <c r="O3" t="n" s="593">
+        <f>SUM(O2:O2)</f>
+        <v>6002.0</v>
+      </c>
+      <c r="P3" s="539"/>
+      <c r="Q3" t="n" s="594">
+        <f>SUM(Q2:Q2)</f>
+        <v>772.0</v>
+      </c>
+      <c r="R3" s="545"/>
+      <c r="S3" t="n" s="595">
+        <f>SUM(S2:S2)</f>
+        <v>48.0</v>
+      </c>
+      <c r="T3" s="551"/>
+      <c r="U3" t="n" s="596">
+        <f>SUM(U2:U2)</f>
+        <v>1649.9999999999995</v>
+      </c>
+      <c r="V3" s="557"/>
+      <c r="W3" s="560"/>
+      <c r="X3" s="563"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="602" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="605" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="608" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="611" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="614" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="617" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="620" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="623" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="626" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="629" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="632" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="635" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="638" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="641" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="644" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="647" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="650" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="653" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="656" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="659" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="662" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="665" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="668" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="671" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="672">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s" s="673">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s" s="674">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s" s="675">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="676">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="686">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n" s="682">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="683">
+        <v>300.0</v>
+      </c>
+      <c r="I2" t="n" s="684">
+        <v>300.0</v>
+      </c>
+      <c r="J2" t="n" s="685">
+        <v>300.0</v>
+      </c>
+      <c r="L2" t="n" s="687">
+        <v>348.0</v>
+      </c>
+      <c r="M2" t="n" s="688">
+        <v>348.0</v>
+      </c>
+      <c r="N2" t="n" s="689">
+        <v>440.2</v>
+      </c>
+      <c r="O2" t="n" s="690">
+        <v>440.2</v>
+      </c>
+      <c r="P2" t="n" s="691">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="Q2" t="n" s="692">
+        <v>57.199999999999996</v>
+      </c>
+      <c r="R2" t="n" s="693">
+        <v>48.0</v>
+      </c>
+      <c r="S2" t="n" s="694">
+        <v>48.0</v>
+      </c>
+      <c r="T2" t="n" s="695">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n" s="696">
+        <v>0.0</v>
+      </c>
+      <c r="V2" t="s" s="704">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="705">
+        <v>82</v>
+      </c>
+      <c r="X2" t="n" s="706">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="707">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s" s="708">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s" s="709">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="710">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s" s="711">
+        <v>46</v>
+      </c>
+      <c r="F3" t="n" s="721">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G3" t="n" s="717">
+        <v>2.0</v>
+      </c>
+      <c r="H3" t="n" s="718">
+        <v>14.96</v>
+      </c>
+      <c r="I3" t="n" s="719">
+        <v>29.92</v>
+      </c>
+      <c r="J3" t="n" s="720">
+        <v>30.0</v>
+      </c>
+      <c r="K3" t="n" s="722">
+        <v>60.0</v>
+      </c>
+      <c r="L3" t="n" s="723">
+        <v>34.8</v>
+      </c>
+      <c r="M3" t="n" s="724">
+        <v>6681.599999999999</v>
+      </c>
+      <c r="N3" t="n" s="725">
+        <v>80.02</v>
+      </c>
+      <c r="O3" t="n" s="726">
+        <v>15363.84</v>
+      </c>
+      <c r="P3" t="n" s="727">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q3" t="n" s="728">
+        <v>1962.2399999999998</v>
+      </c>
+      <c r="R3" t="n" s="729">
+        <v>4.8</v>
+      </c>
+      <c r="S3" t="n" s="730">
+        <v>9.6</v>
+      </c>
+      <c r="T3" t="n" s="731">
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U3" t="n" s="732">
+        <v>2887.6799999999994</v>
+      </c>
+      <c r="V3" t="s" s="740">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s" s="741">
+        <v>82</v>
+      </c>
+      <c r="X3" t="n" s="742">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="601"/>
+      <c r="B4" s="604"/>
+      <c r="C4" s="607"/>
+      <c r="D4" s="610"/>
+      <c r="E4" s="613"/>
+      <c r="F4" s="616"/>
+      <c r="G4" s="619"/>
+      <c r="H4" s="622"/>
+      <c r="I4" t="n" s="733">
+        <f>SUM(I2:I3)</f>
+        <v>329.92</v>
+      </c>
+      <c r="J4" s="628"/>
+      <c r="K4" t="n" s="734">
+        <f>SUM(K2:K3)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L4" s="634"/>
+      <c r="M4" t="n" s="735">
+        <f>SUM(M2:M3)</f>
+        <v>7029.599999999999</v>
+      </c>
+      <c r="N4" s="640"/>
+      <c r="O4" t="n" s="736">
+        <f>SUM(O2:O3)</f>
+        <v>15804.04</v>
+      </c>
+      <c r="P4" s="646"/>
+      <c r="Q4" t="n" s="737">
+        <f>SUM(Q2:Q3)</f>
+        <v>2019.4399999999998</v>
+      </c>
+      <c r="R4" s="652"/>
+      <c r="S4" t="n" s="738">
+        <f>SUM(S2:S3)</f>
+        <v>57.6</v>
+      </c>
+      <c r="T4" s="658"/>
+      <c r="U4" t="n" s="739">
+        <f>SUM(U2:U3)</f>
+        <v>2887.6799999999994</v>
+      </c>
+      <c r="V4" s="664"/>
+      <c r="W4" s="667"/>
+      <c r="X4" s="670"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="91">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -326,7 +326,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="839" x14ac:knownFonts="1">
+  <fonts count="911" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3228,6 +3228,438 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -5582,7 +6014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="850">
+  <cellXfs count="922">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8129,6 +8561,222 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="838" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="839" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="840" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="841" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="842" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="843" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="844" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="845" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="846" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="847" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="848" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="849" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="850" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="852" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="853" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="854" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="856" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="858" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="859" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="860" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="861" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="862" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="864" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="865" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="867" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="868" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="870" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="871" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="872" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="873" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="874" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="875" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="876" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="877" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="878" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="879" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="880" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="881" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="882" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="883" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="884" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="885" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="886" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="887" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="888" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="889" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="890" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="891" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="892" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="893" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="894" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="895" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="896" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="897" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="898" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="899" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="900" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="901" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="902" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="903" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="904" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="905" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="906" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="907" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9032,7 +9680,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
@@ -9124,7 +9772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -9189,7 +9837,7 @@
         <v>1913.9999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>47</v>
       </c>
@@ -9260,51 +9908,199 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="98" t="n">
-        <f>SUM(I2:I3)</f>
-        <v>41.96</v>
-      </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="99" t="n">
-        <f>SUM(K2:K3)</f>
-        <v>90.0</v>
-      </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="100" t="n">
-        <f>SUM(M2:M3)</f>
-        <v>10753.199999999999</v>
-      </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="101" t="n">
-        <f>SUM(O2:O3)</f>
-        <v>22406.18</v>
-      </c>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="102" t="n">
-        <f>SUM(Q2:Q3)</f>
-        <v>2867.9799999999996</v>
-      </c>
-      <c r="R4" s="46"/>
-      <c r="S4" s="103" t="n">
-        <f>SUM(S2:S3)</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="T4" s="49"/>
-      <c r="U4" s="104" t="n">
-        <f>SUM(U2:U3)</f>
-        <v>4816.719999999999</v>
-      </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="54"/>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="850">
+        <v>47</v>
+      </c>
+      <c r="B4" t="s" s="851">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s" s="852">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s" s="853">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s" s="854">
+        <v>46</v>
+      </c>
+      <c r="F4" t="n" s="864">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G4" t="n" s="860">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="861">
+        <v>14.96</v>
+      </c>
+      <c r="I4" t="n" s="862">
+        <v>14.96</v>
+      </c>
+      <c r="J4" t="n" s="863">
+        <v>30.0</v>
+      </c>
+      <c r="K4" t="n" s="865">
+        <v>30.0</v>
+      </c>
+      <c r="L4" t="n" s="866">
+        <v>34.8</v>
+      </c>
+      <c r="M4" t="n" s="867">
+        <v>6646.799999999999</v>
+      </c>
+      <c r="N4" t="n" s="868">
+        <v>80.02</v>
+      </c>
+      <c r="O4" t="n" s="869">
+        <v>15283.82</v>
+      </c>
+      <c r="P4" t="n" s="870">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q4" t="n" s="871">
+        <v>1952.0199999999998</v>
+      </c>
+      <c r="R4" t="n" s="872">
+        <v>4.8</v>
+      </c>
+      <c r="S4" t="n" s="873">
+        <v>4.8</v>
+      </c>
+      <c r="T4" t="n" s="874">
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U4" t="n" s="875">
+        <v>2872.639999999999</v>
+      </c>
+      <c r="V4" t="s" s="883">
+        <v>49</v>
+      </c>
+      <c r="W4" t="s" s="884">
+        <v>50</v>
+      </c>
+      <c r="X4" t="n" s="885">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" t="s" s="886">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s" s="887">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s" s="888">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s" s="889">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s" s="890">
+        <v>46</v>
+      </c>
+      <c r="F5" t="n" s="900">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G5" t="n" s="896">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n" s="897">
+        <v>27.0</v>
+      </c>
+      <c r="I5" t="n" s="898">
+        <v>27.0</v>
+      </c>
+      <c r="J5" t="n" s="899">
+        <v>60.0</v>
+      </c>
+      <c r="K5" t="n" s="901">
+        <v>60.0</v>
+      </c>
+      <c r="L5" t="n" s="902">
+        <v>69.6</v>
+      </c>
+      <c r="M5" t="n" s="903">
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N5" t="n" s="904">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O5" t="n" s="905">
+        <v>6002.0</v>
+      </c>
+      <c r="P5" t="n" s="906">
+        <v>15.44</v>
+      </c>
+      <c r="Q5" t="n" s="907">
+        <v>772.0</v>
+      </c>
+      <c r="R5" t="n" s="908">
+        <v>9.6</v>
+      </c>
+      <c r="S5" t="n" s="909">
+        <v>9.6</v>
+      </c>
+      <c r="T5" t="n" s="910">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U5" t="n" s="911">
+        <v>1649.9999999999995</v>
+      </c>
+      <c r="V5" t="s" s="919">
+        <v>49</v>
+      </c>
+      <c r="W5" t="s" s="920">
+        <v>50</v>
+      </c>
+      <c r="X5" t="n" s="921">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="31"/>
+      <c r="I6" t="n" s="912">
+        <f>SUM(I2:I5)</f>
+        <v>83.92</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" t="n" s="913">
+        <f>SUM(K2:K5)</f>
+        <v>180.0</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" t="n" s="914">
+        <f>SUM(M2:M5)</f>
+        <v>20880.0</v>
+      </c>
+      <c r="N6" s="40"/>
+      <c r="O6" t="n" s="915">
+        <f>SUM(O2:O5)</f>
+        <v>43692.0</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" t="n" s="916">
+        <f>SUM(Q2:Q5)</f>
+        <v>5591.999999999999</v>
+      </c>
+      <c r="R6" s="46"/>
+      <c r="S6" t="n" s="917">
+        <f>SUM(S2:S5)</f>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="T6" s="49"/>
+      <c r="U6" t="n" s="918">
+        <f>SUM(U2:U5)</f>
+        <v>9339.359999999999</v>
+      </c>
+      <c r="V6" s="52"/>
+      <c r="W6" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -23,6 +23,7 @@
     <sheet name="FRANCISCO BENCOMO" r:id="rId12" sheetId="8"/>
     <sheet name="franciasco chavez" r:id="rId13" sheetId="9"/>
     <sheet name="Juanito " r:id="rId14" sheetId="10"/>
+    <sheet name="ARIEL SANDOVAL" r:id="rId15" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="102">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -316,6 +317,39 @@
   <si>
     <t>kajskajskja</t>
   </si>
+  <si>
+    <t>SHIFTERS SHIMANO ALIVIO 3x9</t>
+  </si>
+  <si>
+    <t>SHIFTERS DE GATILLO - 3x9 - COMO NUEVOS - UN PAR - SEMINUEVOS</t>
+  </si>
+  <si>
+    <t>14  AGOSTO</t>
+  </si>
+  <si>
+    <t>CAMBER 29"</t>
+  </si>
+  <si>
+    <t>1.2405405405405405</t>
+  </si>
+  <si>
+    <t>403.05010893246185</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESVIADOR DELANTERO SHIMANO SLX </t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - E-TYPE - ANCLAJE A 2 TORNILLOS - USADO</t>
+  </si>
+  <si>
+    <t>322.4400871459695</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
 </sst>
 </file>
 
@@ -326,7 +360,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="911" x14ac:knownFonts="1">
+  <fonts count="1056" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5644,6 +5678,876 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -6014,7 +6918,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="922">
+  <cellXfs count="1067">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8777,6 +9681,441 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="910" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="911" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="912" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="914" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="915" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="917" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="918" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="920" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="921" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="923" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="924" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="926" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="927" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="929" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="930" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="932" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="933" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="935" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="936" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="938" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="939" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="941" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="942" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="944" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="945" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="947" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="948" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="950" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="951" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="953" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="954" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="956" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="957" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="959" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="960" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="962" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="963" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="965" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="966" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="968" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="969" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="971" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="972" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="974" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="975" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="977" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="978" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="979" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="980" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="981" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="982" fillId="12" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="983" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="984" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="985" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="986" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="987" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="988" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="989" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="990" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="991" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="992" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="993" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="994" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="995" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="996" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="997" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="998" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="999" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1000" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1001" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1002" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1003" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1004" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1005" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1006" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1007" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1008" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1009" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1010" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1011" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1012" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1013" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1014" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1015" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1031" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1032" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1033" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1034" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1035" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1036" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1037" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1038" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1039" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1040" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1041" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1042" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1043" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1044" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1045" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1046" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1047" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1048" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1049" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1050" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1051" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1052" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1053" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1054" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1055" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9678,6 +11017,297 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="924" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="927" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="930" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="933" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="936" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="939" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="942" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="945" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="948" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="951" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="954" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="957" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="960" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="963" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="966" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="969" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="972" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="975" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="978" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="981" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="984" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="987" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="990" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="993" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="994">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="1004">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s" s="996">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s" s="997">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="998">
+        <v>94</v>
+      </c>
+      <c r="F2" t="n" s="1009">
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G2" t="n" s="1005">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="1006">
+        <v>403.05010893246185</v>
+      </c>
+      <c r="I2" t="n" s="1007">
+        <v>403.05010893246185</v>
+      </c>
+      <c r="J2" t="n" s="1008">
+        <v>500.0</v>
+      </c>
+      <c r="L2" t="n" s="1010">
+        <v>580.0</v>
+      </c>
+      <c r="M2" t="n" s="1011">
+        <v>580.0</v>
+      </c>
+      <c r="N2" t="n" s="1012">
+        <v>707.0</v>
+      </c>
+      <c r="O2" t="n" s="1013">
+        <v>707.0</v>
+      </c>
+      <c r="P2" t="n" s="1014">
+        <v>92.0</v>
+      </c>
+      <c r="Q2" t="n" s="1015">
+        <v>92.0</v>
+      </c>
+      <c r="R2" t="n" s="1016">
+        <v>80.0</v>
+      </c>
+      <c r="S2" t="n" s="1017">
+        <v>80.0</v>
+      </c>
+      <c r="T2" t="n" s="1018">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="U2" t="n" s="1019">
+        <v>96.94989106753815</v>
+      </c>
+      <c r="V2" t="s" s="1027">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="1028">
+        <v>55</v>
+      </c>
+      <c r="X2" t="n" s="1029">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="1030">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s" s="1040">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s" s="1032">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s" s="1033">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="1034">
+        <v>94</v>
+      </c>
+      <c r="F3" t="n" s="1045">
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G3" t="n" s="1041">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="1042">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="I3" t="n" s="1043">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="J3" t="n" s="1044">
+        <v>400.0</v>
+      </c>
+      <c r="K3" t="n" s="1046">
+        <v>400.0</v>
+      </c>
+      <c r="L3" t="n" s="1047">
+        <v>464.0</v>
+      </c>
+      <c r="M3" t="n" s="1048">
+        <v>464.0</v>
+      </c>
+      <c r="N3" t="n" s="1049">
+        <v>573.6</v>
+      </c>
+      <c r="O3" t="n" s="1050">
+        <v>573.6</v>
+      </c>
+      <c r="P3" t="n" s="1051">
+        <v>74.6</v>
+      </c>
+      <c r="Q3" t="n" s="1052">
+        <v>74.6</v>
+      </c>
+      <c r="R3" t="n" s="1053">
+        <v>64.0</v>
+      </c>
+      <c r="S3" t="n" s="1054">
+        <v>64.0</v>
+      </c>
+      <c r="T3" t="n" s="1055">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="U3" t="n" s="1056">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="V3" t="s" s="1064">
+        <v>49</v>
+      </c>
+      <c r="W3" t="s" s="1065">
+        <v>55</v>
+      </c>
+      <c r="X3" t="n" s="1066">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="923"/>
+      <c r="B4" s="926"/>
+      <c r="C4" s="929"/>
+      <c r="D4" s="932"/>
+      <c r="E4" s="935"/>
+      <c r="F4" s="938"/>
+      <c r="G4" s="941"/>
+      <c r="H4" s="944"/>
+      <c r="I4" t="n" s="1057">
+        <f>SUM(I2:I3)</f>
+        <v>725.4901960784314</v>
+      </c>
+      <c r="J4" s="950"/>
+      <c r="K4" t="n" s="1058">
+        <f>SUM(K2:K3)</f>
+        <v>400.0</v>
+      </c>
+      <c r="L4" s="956"/>
+      <c r="M4" t="n" s="1059">
+        <f>SUM(M2:M3)</f>
+        <v>1044.0</v>
+      </c>
+      <c r="N4" s="962"/>
+      <c r="O4" t="n" s="1060">
+        <f>SUM(O2:O3)</f>
+        <v>1280.6</v>
+      </c>
+      <c r="P4" s="968"/>
+      <c r="Q4" t="n" s="1061">
+        <f>SUM(Q2:Q3)</f>
+        <v>166.6</v>
+      </c>
+      <c r="R4" s="974"/>
+      <c r="S4" t="n" s="1062">
+        <f>SUM(S2:S3)</f>
+        <v>144.0</v>
+      </c>
+      <c r="T4" s="980"/>
+      <c r="U4" t="n" s="1063">
+        <f>SUM(U2:U3)</f>
+        <v>174.50980392156862</v>
+      </c>
+      <c r="V4" s="986"/>
+      <c r="W4" s="989"/>
+      <c r="X4" s="992"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X6"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="83">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -306,7 +306,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1066" x14ac:knownFonts="1">
+  <fonts count="1102" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6554,6 +6554,222 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -6934,7 +7150,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1077">
+  <cellXfs count="1113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10162,6 +10378,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1065" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1077" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1078" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1079" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1080" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1081" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1082" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1083" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1084" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1085" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1086" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1087" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1088" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1089" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1090" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1091" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1092" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1093" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1094" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1095" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1096" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1097" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1098" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11836,7 +12160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
@@ -11928,7 +12252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>42</v>
       </c>
@@ -11993,7 +12317,7 @@
         <v>1913.9999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>47</v>
       </c>
@@ -12064,7 +12388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A4" s="723" t="s">
         <v>47</v>
       </c>
@@ -12138,7 +12462,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A5" s="747" t="s">
         <v>42</v>
       </c>
@@ -12212,51 +12536,125 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="768" t="n">
-        <f>SUM(I2:I5)</f>
-        <v>83.92</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="769" t="n">
-        <f>SUM(K2:K5)</f>
-        <v>180.0</v>
-      </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="770" t="n">
-        <f>SUM(M2:M5)</f>
-        <v>20880.0</v>
-      </c>
-      <c r="N6" s="40"/>
-      <c r="O6" s="771" t="n">
-        <f>SUM(O2:O5)</f>
-        <v>43692.0</v>
-      </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="772" t="n">
-        <f>SUM(Q2:Q5)</f>
-        <v>5591.999999999999</v>
-      </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="773" t="n">
-        <f>SUM(S2:S5)</f>
-        <v>28.799999999999997</v>
-      </c>
-      <c r="T6" s="49"/>
-      <c r="U6" s="774" t="n">
-        <f>SUM(U2:U5)</f>
-        <v>9339.359999999999</v>
-      </c>
-      <c r="V6" s="52"/>
-      <c r="W6" s="54"/>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" t="s" s="1077">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="1078">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="1079">
+        <v>69</v>
+      </c>
+      <c r="D6" t="s" s="1080">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="1081">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n" s="1091">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G6" t="n" s="1087">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="1088">
+        <v>27.0</v>
+      </c>
+      <c r="I6" t="n" s="1089">
+        <v>27.0</v>
+      </c>
+      <c r="J6" t="n" s="1090">
+        <v>60.0</v>
+      </c>
+      <c r="K6" t="n" s="1092">
+        <v>60.0</v>
+      </c>
+      <c r="L6" t="n" s="1093">
+        <v>69.6</v>
+      </c>
+      <c r="M6" t="n" s="1094">
+        <v>13432.8</v>
+      </c>
+      <c r="N6" t="n" s="1095">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O6" t="n" s="1096">
+        <v>23167.719999999998</v>
+      </c>
+      <c r="P6" t="n" s="1097">
+        <v>15.44</v>
+      </c>
+      <c r="Q6" t="n" s="1098">
+        <v>2979.92</v>
+      </c>
+      <c r="R6" t="n" s="1099">
+        <v>9.6</v>
+      </c>
+      <c r="S6" t="n" s="1100">
+        <v>9.6</v>
+      </c>
+      <c r="T6" t="n" s="1101">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U6" t="n" s="1102">
+        <v>6368.999999999998</v>
+      </c>
+      <c r="V6" t="s" s="1110">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s" s="1111">
+        <v>50</v>
+      </c>
+      <c r="X6" t="n" s="1112">
+        <v>53.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="31"/>
+      <c r="I7" t="n" s="1103">
+        <f>SUM(I2:I6)</f>
+        <v>110.92</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" t="n" s="1104">
+        <f>SUM(K2:K6)</f>
+        <v>240.0</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" t="n" s="1105">
+        <f>SUM(M2:M6)</f>
+        <v>34312.8</v>
+      </c>
+      <c r="N7" s="40"/>
+      <c r="O7" t="n" s="1106">
+        <f>SUM(O2:O6)</f>
+        <v>66859.72</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" t="n" s="1107">
+        <f>SUM(Q2:Q6)</f>
+        <v>8571.919999999998</v>
+      </c>
+      <c r="R7" s="46"/>
+      <c r="S7" t="n" s="1108">
+        <f>SUM(S2:S6)</f>
+        <v>38.4</v>
+      </c>
+      <c r="T7" s="49"/>
+      <c r="U7" t="n" s="1109">
+        <f>SUM(U2:U6)</f>
+        <v>15708.359999999997</v>
+      </c>
+      <c r="V7" s="52"/>
+      <c r="W7" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -27,6 +27,7 @@
     <sheet name="EL CHIQUETE" sheetId="12" r:id="rId12"/>
     <sheet name="ELNUEVO" sheetId="13" r:id="rId13"/>
     <sheet name="FUNDAS" r:id="rId18" sheetId="14"/>
+    <sheet name="DODO" r:id="rId19" sheetId="15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -296,6 +297,9 @@
   <si>
     <t>60.0</t>
   </si>
+  <si>
+    <t>ASDASDA</t>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +310,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1102" x14ac:knownFonts="1">
+  <fonts count="1212" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6764,6 +6768,666 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -7150,7 +7814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1113">
+  <cellXfs count="1223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10486,6 +11150,336 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1101" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1102" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1103" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1105" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1106" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1108" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1109" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1111" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1112" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1114" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1115" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1117" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1118" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1120" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1121" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1123" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1124" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1125" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1126" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1127" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1128" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1129" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1130" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1131" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1132" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1133" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1134" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1135" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1136" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1137" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1138" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1139" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1141" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1142" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1144" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1145" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1147" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1148" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1150" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1151" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1153" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1154" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1155" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1156" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1157" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1158" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1159" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1160" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1161" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1162" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1163" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1164" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1165" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1166" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1167" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1168" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1169" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1170" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1171" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1172" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1173" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1174" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1175" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1176" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1177" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1178" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1179" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1180" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1181" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1182" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1183" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1184" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1185" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1186" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1187" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1188" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1189" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1190" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1191" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1192" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1193" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1194" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1195" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1196" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1197" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1198" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1199" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1200" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1201" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1202" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1203" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1204" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1205" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1206" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1207" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1208" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1209" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1210" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1211" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12158,6 +13152,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1115" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1124" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1130" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1133" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1136" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1139" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1142" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1145" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1148" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1151" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1154" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1157" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1160" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1163" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1166" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1169" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1172" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1175" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1178" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1181" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1185">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="1195">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="1187">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s" s="1188">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="1189">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="1201">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="1196">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="1197">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="1198">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="1199">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="1202">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="1203">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="1204">
+        <v>12597.599999999999</v>
+      </c>
+      <c r="N2" t="n" s="1205">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="1206">
+        <v>21727.239999999998</v>
+      </c>
+      <c r="P2" t="n" s="1207">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="1208">
+        <v>2794.64</v>
+      </c>
+      <c r="R2" t="n" s="1209">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="1210">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="1211">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="1212">
+        <v>5972.999999999999</v>
+      </c>
+      <c r="V2" t="s" s="1220">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="1221">
+        <v>83</v>
+      </c>
+      <c r="X2" t="n" s="1222">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="1114"/>
+      <c r="B3" s="1117"/>
+      <c r="C3" s="1120"/>
+      <c r="D3" s="1123"/>
+      <c r="E3" s="1126"/>
+      <c r="F3" s="1129"/>
+      <c r="G3" s="1132"/>
+      <c r="H3" s="1135"/>
+      <c r="I3" t="n" s="1213">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="1141"/>
+      <c r="K3" t="n" s="1214">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="1147"/>
+      <c r="M3" t="n" s="1215">
+        <f>SUM(M2:M2)</f>
+        <v>12597.599999999999</v>
+      </c>
+      <c r="N3" s="1153"/>
+      <c r="O3" t="n" s="1216">
+        <f>SUM(O2:O2)</f>
+        <v>21727.239999999998</v>
+      </c>
+      <c r="P3" s="1159"/>
+      <c r="Q3" t="n" s="1217">
+        <f>SUM(Q2:Q2)</f>
+        <v>2794.64</v>
+      </c>
+      <c r="R3" s="1165"/>
+      <c r="S3" t="n" s="1218">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="1171"/>
+      <c r="U3" t="n" s="1219">
+        <f>SUM(U2:U2)</f>
+        <v>5972.999999999999</v>
+      </c>
+      <c r="V3" s="1177"/>
+      <c r="W3" s="1180"/>
+      <c r="X3" s="1183"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X7"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -28,6 +28,7 @@
     <sheet name="ELNUEVO" sheetId="13" r:id="rId13"/>
     <sheet name="FUNDAS" r:id="rId18" sheetId="14"/>
     <sheet name="DODO" r:id="rId19" sheetId="15"/>
+    <sheet name="JUANKY" r:id="rId20" sheetId="16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="90">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -300,6 +301,24 @@
   <si>
     <t>ASDASDA</t>
   </si>
+  <si>
+    <t>DESVIADOR DELANTERO XT</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - PARA JALON ARRIBA - USADO</t>
+  </si>
+  <si>
+    <t>17  AGOSTO</t>
+  </si>
+  <si>
+    <t>1.946666666666667</t>
+  </si>
+  <si>
+    <t>179.79452054794518</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
 </sst>
 </file>
 
@@ -310,7 +329,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1212" x14ac:knownFonts="1">
+  <fonts count="1322" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6768,6 +6787,666 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -7814,7 +8493,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1223">
+  <cellXfs count="1333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11480,6 +12159,336 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1211" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1212" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1213" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1214" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1215" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1216" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1217" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1218" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1219" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1220" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1221" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1222" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1223" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1224" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1225" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1226" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1227" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1228" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1229" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1230" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1231" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1232" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1233" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1234" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1235" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1236" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1237" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1238" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1239" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1240" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1241" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1242" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1243" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1244" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1245" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1246" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1247" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1248" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1249" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1250" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1251" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1252" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1253" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1254" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1255" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1256" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1257" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1258" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1259" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1260" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1261" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1262" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1263" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1264" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1265" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1266" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1267" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1268" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1269" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1270" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1271" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1272" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1273" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1274" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1275" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1276" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1277" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1278" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1279" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1280" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1281" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1282" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1283" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1284" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1285" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1286" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1287" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1288" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1289" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1290" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1291" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1292" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1293" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1294" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1295" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1296" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1297" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1298" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1299" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1300" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1301" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1302" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1303" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1304" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1305" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1306" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1307" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1308" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1309" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1310" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1311" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1312" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1313" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1314" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1315" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1316" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1317" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1318" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1319" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1320" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1321" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13386,6 +14395,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1225" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1231" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1234" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1237" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1240" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1243" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1246" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1249" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1252" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1255" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1258" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1261" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1264" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1267" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1270" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1273" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1276" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1279" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1282" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1285" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1288" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1291" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1294" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1295">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s" s="1305">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s" s="1297">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s" s="1298">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="1299">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="1311">
+        <v>1.946666666666667</v>
+      </c>
+      <c r="G2" t="n" s="1306">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="1307">
+        <v>179.79452054794518</v>
+      </c>
+      <c r="I2" t="n" s="1308">
+        <v>179.79452054794518</v>
+      </c>
+      <c r="J2" t="n" s="1309">
+        <v>350.0</v>
+      </c>
+      <c r="K2" t="n" s="1312">
+        <v>350.0</v>
+      </c>
+      <c r="L2" t="n" s="1313">
+        <v>406.0</v>
+      </c>
+      <c r="M2" t="n" s="1314">
+        <v>406.0</v>
+      </c>
+      <c r="N2" t="n" s="1315">
+        <v>506.9</v>
+      </c>
+      <c r="O2" t="n" s="1316">
+        <v>506.9</v>
+      </c>
+      <c r="P2" t="n" s="1317">
+        <v>65.9</v>
+      </c>
+      <c r="Q2" t="n" s="1318">
+        <v>65.9</v>
+      </c>
+      <c r="R2" t="n" s="1319">
+        <v>56.0</v>
+      </c>
+      <c r="S2" t="n" s="1320">
+        <v>56.0</v>
+      </c>
+      <c r="T2" t="n" s="1321">
+        <v>170.20547945205482</v>
+      </c>
+      <c r="U2" t="n" s="1322">
+        <v>170.20547945205482</v>
+      </c>
+      <c r="V2" t="s" s="1330">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="1331">
+        <v>55</v>
+      </c>
+      <c r="X2" t="n" s="1332">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="1224"/>
+      <c r="B3" s="1227"/>
+      <c r="C3" s="1230"/>
+      <c r="D3" s="1233"/>
+      <c r="E3" s="1236"/>
+      <c r="F3" s="1239"/>
+      <c r="G3" s="1242"/>
+      <c r="H3" s="1245"/>
+      <c r="I3" t="n" s="1323">
+        <f>SUM(I2:I2)</f>
+        <v>179.79452054794518</v>
+      </c>
+      <c r="J3" s="1251"/>
+      <c r="K3" t="n" s="1324">
+        <f>SUM(K2:K2)</f>
+        <v>350.0</v>
+      </c>
+      <c r="L3" s="1257"/>
+      <c r="M3" t="n" s="1325">
+        <f>SUM(M2:M2)</f>
+        <v>406.0</v>
+      </c>
+      <c r="N3" s="1263"/>
+      <c r="O3" t="n" s="1326">
+        <f>SUM(O2:O2)</f>
+        <v>506.9</v>
+      </c>
+      <c r="P3" s="1269"/>
+      <c r="Q3" t="n" s="1327">
+        <f>SUM(Q2:Q2)</f>
+        <v>65.9</v>
+      </c>
+      <c r="R3" s="1275"/>
+      <c r="S3" t="n" s="1328">
+        <f>SUM(S2:S2)</f>
+        <v>56.0</v>
+      </c>
+      <c r="T3" s="1281"/>
+      <c r="U3" t="n" s="1329">
+        <f>SUM(U2:U2)</f>
+        <v>170.20547945205482</v>
+      </c>
+      <c r="V3" s="1287"/>
+      <c r="W3" s="1290"/>
+      <c r="X3" s="1293"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X7"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -29,6 +29,9 @@
     <sheet name="FUNDAS" r:id="rId18" sheetId="14"/>
     <sheet name="DODO" r:id="rId19" sheetId="15"/>
     <sheet name="JUANKY" r:id="rId20" sheetId="16"/>
+    <sheet name="aver k pasa" r:id="rId21" sheetId="17"/>
+    <sheet name="MARIO ANGELITO" r:id="rId22" sheetId="18"/>
+    <sheet name="NAVARRITO" r:id="rId23" sheetId="19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="99">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -319,6 +322,33 @@
   <si>
     <t>350.0</t>
   </si>
+  <si>
+    <t>dsfdfs</t>
+  </si>
+  <si>
+    <t>DESVIADOR DELANTERO SRAM X5</t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - ADAPTADOR A VARIAS MEDIDAS DE CUADRO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>2.0053475935828877</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>YOUTUBE</t>
+  </si>
 </sst>
 </file>
 
@@ -329,7 +359,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1322" x14ac:knownFonts="1">
+  <fonts count="1649" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7465,6 +7495,1968 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -8493,7 +10485,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1333">
+  <cellXfs count="1660">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -12489,6 +14481,987 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1321" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1322" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1323" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1324" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1325" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1326" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1327" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1328" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1329" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1330" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1331" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1332" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1333" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1334" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1335" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1336" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1337" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1338" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1339" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1340" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1341" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1342" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1343" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1344" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1345" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1346" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1347" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1348" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1349" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1350" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1351" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1352" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1353" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1354" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1355" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1356" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1357" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1358" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1359" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1360" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1361" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1362" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1363" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1364" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1365" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1366" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1367" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1368" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1369" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1370" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1371" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1372" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1373" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1374" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1375" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1376" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1377" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1378" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1379" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1380" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1381" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1382" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1383" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1384" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1385" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1386" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1387" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1388" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1389" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1390" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1391" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1392" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1393" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1394" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1395" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1396" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1397" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1398" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1399" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1400" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1401" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1402" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1403" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1404" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1405" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1406" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1407" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1408" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1409" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1410" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1411" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1412" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1413" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1414" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1415" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1416" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1417" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1418" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1419" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1420" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1421" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1422" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1423" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1424" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1425" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1426" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1427" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1428" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1429" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1430" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1431" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1432" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1433" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1434" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1435" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1436" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1437" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1438" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1439" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1440" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1441" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1442" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1443" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1444" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1445" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1446" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1447" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1448" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1449" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1450" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1451" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1452" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1453" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1454" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1455" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1456" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1457" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1458" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1459" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1460" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1461" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1462" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1463" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1464" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1465" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1466" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1467" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1468" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1469" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1470" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1471" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1472" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1473" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1474" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1475" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1476" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1477" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1478" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1479" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1480" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1481" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1482" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1483" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1484" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1485" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1486" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1487" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1488" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1489" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1490" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1491" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1492" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1493" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1494" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1495" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1496" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1497" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1498" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1499" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1500" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1501" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1502" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1503" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1504" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1505" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1506" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1507" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1508" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1509" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1510" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1511" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1512" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1513" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1514" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1515" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1516" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1517" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1518" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1519" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1520" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1521" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1522" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1523" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1524" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1525" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1526" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1527" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1528" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1529" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1530" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1531" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1532" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1533" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1534" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1535" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1536" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1537" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1538" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1539" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1540" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1541" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1542" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1543" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1544" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1545" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1546" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1547" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1548" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1549" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1550" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1551" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1552" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1553" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1554" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1555" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1556" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1557" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1558" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1559" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1560" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1561" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1562" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1563" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1564" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1565" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1566" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1567" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1568" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1569" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1570" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1571" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1572" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1573" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1574" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1575" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1576" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1577" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1578" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1579" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1580" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1581" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1582" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1583" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1584" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1585" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1586" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1587" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1588" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1589" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1590" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1591" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1592" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1593" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1594" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1595" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1596" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1597" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1598" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1599" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1600" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1601" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1602" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1603" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1604" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1605" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1606" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1607" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1608" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1609" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1610" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1611" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1612" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1613" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1614" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1615" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1616" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1617" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1618" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1619" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1620" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1621" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1622" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1623" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1624" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1625" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1626" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1627" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1628" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1629" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1630" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1631" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1632" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1633" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1634" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1635" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1636" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1637" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1638" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1639" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1640" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1641" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1642" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1643" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1644" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1645" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1646" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1647" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1648" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14397,7 +17370,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -14504,125 +17477,670 @@
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="1295">
-        <v>84</v>
-      </c>
-      <c r="B2" t="s" s="1305">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s" s="1297">
+      <c r="A2" s="1224"/>
+      <c r="B2" s="1227"/>
+      <c r="C2" s="1230"/>
+      <c r="D2" s="1233"/>
+      <c r="E2" s="1236"/>
+      <c r="F2" s="1239"/>
+      <c r="G2" s="1242"/>
+      <c r="H2" s="1245"/>
+      <c r="I2" t="e" s="1323">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" s="1251"/>
+      <c r="K2" t="e" s="1324">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L2" s="1257"/>
+      <c r="M2" t="e" s="1325">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N2" s="1263"/>
+      <c r="O2" t="e" s="1326">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" s="1269"/>
+      <c r="Q2" t="e" s="1327">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R2" s="1275"/>
+      <c r="S2" t="e" s="1328">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="T2" s="1281"/>
+      <c r="U2" t="e" s="1329">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="V2" s="1287"/>
+      <c r="W2" s="1290"/>
+      <c r="X2" s="1293"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1335" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1341" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1344" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1347" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1350" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1353" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1356" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1359" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1362" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1365" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1368" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1371" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1374" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1377" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1380" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1383" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1386" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1389" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1392" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1395" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1398" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1401" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1404" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1405">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s" s="1415">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s" s="1407">
         <v>86</v>
       </c>
-      <c r="D2" t="s" s="1298">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s" s="1299">
-        <v>12</v>
-      </c>
-      <c r="F2" t="n" s="1311">
-        <v>1.946666666666667</v>
-      </c>
-      <c r="G2" t="n" s="1306">
+      <c r="D2" t="s" s="1408">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="1409">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="1421">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="1416">
         <v>1.0</v>
       </c>
-      <c r="H2" t="n" s="1307">
-        <v>179.79452054794518</v>
-      </c>
-      <c r="I2" t="n" s="1308">
-        <v>179.79452054794518</v>
-      </c>
-      <c r="J2" t="n" s="1309">
-        <v>350.0</v>
-      </c>
-      <c r="K2" t="n" s="1312">
-        <v>350.0</v>
-      </c>
-      <c r="L2" t="n" s="1313">
-        <v>406.0</v>
-      </c>
-      <c r="M2" t="n" s="1314">
-        <v>406.0</v>
-      </c>
-      <c r="N2" t="n" s="1315">
-        <v>506.9</v>
-      </c>
-      <c r="O2" t="n" s="1316">
-        <v>506.9</v>
-      </c>
-      <c r="P2" t="n" s="1317">
-        <v>65.9</v>
-      </c>
-      <c r="Q2" t="n" s="1318">
-        <v>65.9</v>
-      </c>
-      <c r="R2" t="n" s="1319">
-        <v>56.0</v>
-      </c>
-      <c r="S2" t="n" s="1320">
-        <v>56.0</v>
-      </c>
-      <c r="T2" t="n" s="1321">
-        <v>170.20547945205482</v>
-      </c>
-      <c r="U2" t="n" s="1322">
-        <v>170.20547945205482</v>
-      </c>
-      <c r="V2" t="s" s="1330">
+      <c r="H2" t="n" s="1417">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="1418">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="1419">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="1422">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="1423">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="1424">
+        <v>12527.999999999998</v>
+      </c>
+      <c r="N2" t="n" s="1425">
+        <v>120.03999999999999</v>
+      </c>
+      <c r="O2" t="n" s="1426">
+        <v>21607.199999999997</v>
+      </c>
+      <c r="P2" t="n" s="1427">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="1428">
+        <v>2779.2</v>
+      </c>
+      <c r="R2" t="n" s="1429">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="1430">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="1431">
+        <v>32.99999999999999</v>
+      </c>
+      <c r="U2" t="n" s="1432">
+        <v>5939.999999999999</v>
+      </c>
+      <c r="V2" t="s" s="1440">
         <v>49</v>
       </c>
-      <c r="W2" t="s" s="1331">
-        <v>55</v>
-      </c>
-      <c r="X2" t="n" s="1332">
-        <v>13.0</v>
+      <c r="W2" t="s" s="1441">
+        <v>90</v>
+      </c>
+      <c r="X2" t="n" s="1442">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="1224"/>
-      <c r="B3" s="1227"/>
-      <c r="C3" s="1230"/>
-      <c r="D3" s="1233"/>
-      <c r="E3" s="1236"/>
-      <c r="F3" s="1239"/>
-      <c r="G3" s="1242"/>
-      <c r="H3" s="1245"/>
-      <c r="I3" t="n" s="1323">
+      <c r="A3" s="1334"/>
+      <c r="B3" s="1337"/>
+      <c r="C3" s="1340"/>
+      <c r="D3" s="1343"/>
+      <c r="E3" s="1346"/>
+      <c r="F3" s="1349"/>
+      <c r="G3" s="1352"/>
+      <c r="H3" s="1355"/>
+      <c r="I3" t="n" s="1433">
         <f>SUM(I2:I2)</f>
-        <v>179.79452054794518</v>
-      </c>
-      <c r="J3" s="1251"/>
-      <c r="K3" t="n" s="1324">
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="1361"/>
+      <c r="K3" t="n" s="1434">
         <f>SUM(K2:K2)</f>
-        <v>350.0</v>
-      </c>
-      <c r="L3" s="1257"/>
-      <c r="M3" t="n" s="1325">
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="1367"/>
+      <c r="M3" t="n" s="1435">
         <f>SUM(M2:M2)</f>
-        <v>406.0</v>
-      </c>
-      <c r="N3" s="1263"/>
-      <c r="O3" t="n" s="1326">
+        <v>12527.999999999998</v>
+      </c>
+      <c r="N3" s="1373"/>
+      <c r="O3" t="n" s="1436">
         <f>SUM(O2:O2)</f>
-        <v>506.9</v>
-      </c>
-      <c r="P3" s="1269"/>
-      <c r="Q3" t="n" s="1327">
+        <v>21607.199999999997</v>
+      </c>
+      <c r="P3" s="1379"/>
+      <c r="Q3" t="n" s="1437">
         <f>SUM(Q2:Q2)</f>
-        <v>65.9</v>
-      </c>
-      <c r="R3" s="1275"/>
-      <c r="S3" t="n" s="1328">
+        <v>2779.2</v>
+      </c>
+      <c r="R3" s="1385"/>
+      <c r="S3" t="n" s="1438">
         <f>SUM(S2:S2)</f>
-        <v>56.0</v>
-      </c>
-      <c r="T3" s="1281"/>
-      <c r="U3" t="n" s="1329">
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="1391"/>
+      <c r="U3" t="n" s="1439">
         <f>SUM(U2:U2)</f>
-        <v>170.20547945205482</v>
-      </c>
-      <c r="V3" s="1287"/>
-      <c r="W3" s="1290"/>
-      <c r="X3" s="1293"/>
+        <v>5939.999999999999</v>
+      </c>
+      <c r="V3" s="1397"/>
+      <c r="W3" s="1400"/>
+      <c r="X3" s="1403"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1445" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1451" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1454" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1457" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1460" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1463" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1466" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1469" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1472" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1475" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1478" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1481" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1484" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1487" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1490" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1493" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1496" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1499" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1502" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1505" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1508" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1511" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1514" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1515">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s" s="1525">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s" s="1517">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s" s="1518">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="1519">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="1531">
+        <v>1.0</v>
+      </c>
+      <c r="G2" t="n" s="1526">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="1527">
+        <v>450.0</v>
+      </c>
+      <c r="I2" t="n" s="1528">
+        <v>450.0</v>
+      </c>
+      <c r="J2" t="n" s="1529">
+        <v>450.0</v>
+      </c>
+      <c r="K2" t="n" s="1532">
+        <v>450.0</v>
+      </c>
+      <c r="L2" t="n" s="1533">
+        <v>522.0</v>
+      </c>
+      <c r="M2" t="n" s="1534">
+        <v>522.0</v>
+      </c>
+      <c r="N2" t="n" s="1535">
+        <v>640.3</v>
+      </c>
+      <c r="O2" t="n" s="1536">
+        <v>640.3</v>
+      </c>
+      <c r="P2" t="n" s="1537">
+        <v>83.3</v>
+      </c>
+      <c r="Q2" t="n" s="1538">
+        <v>83.3</v>
+      </c>
+      <c r="R2" t="n" s="1539">
+        <v>72.0</v>
+      </c>
+      <c r="S2" t="n" s="1540">
+        <v>72.0</v>
+      </c>
+      <c r="T2" t="n" s="1541">
+        <v>0.0</v>
+      </c>
+      <c r="U2" t="n" s="1542">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="1444"/>
+      <c r="B3" s="1447"/>
+      <c r="C3" s="1450"/>
+      <c r="D3" s="1453"/>
+      <c r="E3" s="1456"/>
+      <c r="F3" s="1459"/>
+      <c r="G3" s="1462"/>
+      <c r="H3" s="1465"/>
+      <c r="I3" t="n" s="1543">
+        <f>SUM(I2:I2)</f>
+        <v>450.0</v>
+      </c>
+      <c r="J3" s="1471"/>
+      <c r="K3" t="n" s="1544">
+        <f>SUM(K2:K2)</f>
+        <v>450.0</v>
+      </c>
+      <c r="L3" s="1477"/>
+      <c r="M3" t="n" s="1545">
+        <f>SUM(M2:M2)</f>
+        <v>522.0</v>
+      </c>
+      <c r="N3" s="1483"/>
+      <c r="O3" t="n" s="1546">
+        <f>SUM(O2:O2)</f>
+        <v>640.3</v>
+      </c>
+      <c r="P3" s="1489"/>
+      <c r="Q3" t="n" s="1547">
+        <f>SUM(Q2:Q2)</f>
+        <v>83.3</v>
+      </c>
+      <c r="R3" s="1495"/>
+      <c r="S3" t="n" s="1548">
+        <f>SUM(S2:S2)</f>
+        <v>72.0</v>
+      </c>
+      <c r="T3" s="1501"/>
+      <c r="U3" t="n" s="1549">
+        <f>SUM(U2:U2)</f>
+        <v>0.0</v>
+      </c>
+      <c r="V3" s="1507"/>
+      <c r="W3" s="1510"/>
+      <c r="X3" s="1513"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1552" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1555" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1558" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1561" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1564" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1567" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1570" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1573" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1576" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1579" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1582" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1585" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1588" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1591" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1594" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1597" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1600" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1603" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1606" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1609" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1612" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1615" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1618" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1621" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" s="1551"/>
+      <c r="B2" s="1554"/>
+      <c r="C2" s="1557"/>
+      <c r="D2" s="1560"/>
+      <c r="E2" s="1563"/>
+      <c r="F2" s="1566"/>
+      <c r="G2" s="1569"/>
+      <c r="H2" s="1572"/>
+      <c r="I2" t="n" s="1650">
+        <f>SUM(#REF!)</f>
+        <v>14.96</v>
+      </c>
+      <c r="J2" s="1578"/>
+      <c r="K2" t="n" s="1651">
+        <f>SUM(#REF!)</f>
+        <v>30.0</v>
+      </c>
+      <c r="L2" s="1584"/>
+      <c r="M2" t="n" s="1652">
+        <f>SUM(#REF!)</f>
+        <v>6577.2</v>
+      </c>
+      <c r="N2" s="1590"/>
+      <c r="O2" t="n" s="1653">
+        <f>SUM(#REF!)</f>
+        <v>15123.779999999999</v>
+      </c>
+      <c r="P2" s="1596"/>
+      <c r="Q2" t="n" s="1654">
+        <f>SUM(#REF!)</f>
+        <v>1931.5799999999997</v>
+      </c>
+      <c r="R2" s="1602"/>
+      <c r="S2" t="n" s="1655">
+        <f>SUM(#REF!)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T2" s="1608"/>
+      <c r="U2" t="n" s="1656">
+        <f>SUM(#REF!)</f>
+        <v>2842.559999999999</v>
+      </c>
+      <c r="V2" s="1614"/>
+      <c r="W2" s="1617"/>
+      <c r="X2" s="1620"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -32,6 +32,7 @@
     <sheet name="aver k pasa" r:id="rId21" sheetId="17"/>
     <sheet name="MARIO ANGELITO" r:id="rId22" sheetId="18"/>
     <sheet name="NAVARRITO" r:id="rId23" sheetId="19"/>
+    <sheet name="JUANITO LOPEZ" r:id="rId24" sheetId="20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="99">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -359,7 +360,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1649" x14ac:knownFonts="1">
+  <fonts count="1759" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9457,6 +9458,666 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -10485,7 +11146,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1660">
+  <cellXfs count="1770">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -15462,6 +16123,336 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1648" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1649" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1650" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1651" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1652" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1653" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1654" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1655" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1656" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1657" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1658" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1659" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1660" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1661" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1662" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1663" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1664" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1665" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1666" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1667" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1668" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1669" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1670" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1671" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1672" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1673" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1674" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1675" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1676" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1677" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1678" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1679" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1680" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1681" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1682" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1683" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1684" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1685" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1686" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1687" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1688" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1689" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1690" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1691" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1692" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1693" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1694" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1695" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1696" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1697" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1698" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1699" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1700" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1701" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1702" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1703" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1704" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1705" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1706" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1707" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1708" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1709" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1710" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1711" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1712" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1713" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1714" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1715" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1716" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1717" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1718" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1719" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1720" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1721" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1722" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1723" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1724" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1725" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1726" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1727" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1728" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1729" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1730" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1731" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1732" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1733" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1734" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1735" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1736" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1737" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1738" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1739" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1740" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1741" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1742" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1743" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1744" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1745" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1746" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1747" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1748" fillId="13" borderId="11" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1749" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1750" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1751" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1752" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1753" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1754" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1755" fillId="11" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1756" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1757" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1758" fillId="13" borderId="11" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18104,39 +19095,39 @@
       <c r="F2" s="1566"/>
       <c r="G2" s="1569"/>
       <c r="H2" s="1572"/>
-      <c r="I2" t="n" s="1650">
+      <c r="I2" t="e" s="1650">
         <f>SUM(#REF!)</f>
-        <v>14.96</v>
+        <v>#REF!</v>
       </c>
       <c r="J2" s="1578"/>
-      <c r="K2" t="n" s="1651">
+      <c r="K2" t="e" s="1651">
         <f>SUM(#REF!)</f>
-        <v>30.0</v>
+        <v>#REF!</v>
       </c>
       <c r="L2" s="1584"/>
-      <c r="M2" t="n" s="1652">
+      <c r="M2" t="e" s="1652">
         <f>SUM(#REF!)</f>
-        <v>6577.2</v>
+        <v>#REF!</v>
       </c>
       <c r="N2" s="1590"/>
-      <c r="O2" t="n" s="1653">
+      <c r="O2" t="e" s="1653">
         <f>SUM(#REF!)</f>
-        <v>15123.779999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="P2" s="1596"/>
-      <c r="Q2" t="n" s="1654">
+      <c r="Q2" t="e" s="1654">
         <f>SUM(#REF!)</f>
-        <v>1931.5799999999997</v>
+        <v>#REF!</v>
       </c>
       <c r="R2" s="1602"/>
-      <c r="S2" t="n" s="1655">
+      <c r="S2" t="e" s="1655">
         <f>SUM(#REF!)</f>
-        <v>4.8</v>
+        <v>#REF!</v>
       </c>
       <c r="T2" s="1608"/>
-      <c r="U2" t="n" s="1656">
+      <c r="U2" t="e" s="1656">
         <f>SUM(#REF!)</f>
-        <v>2842.559999999999</v>
+        <v>#REF!</v>
       </c>
       <c r="V2" s="1614"/>
       <c r="W2" s="1617"/>
@@ -18650,6 +19641,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="1662" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1665" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1668" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1671" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1674" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1677" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1680" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1683" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1686" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1689" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="1692" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1695" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="1698" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="1701" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="1704" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="1707" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1710" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1713" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1716" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1719" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="1722" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1725" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="1728" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="1731" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="1732">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s" s="1742">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s" s="1734">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s" s="1735">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s" s="1736">
+        <v>46</v>
+      </c>
+      <c r="F2" t="n" s="1748">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G2" t="n" s="1743">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="1744">
+        <v>14.96</v>
+      </c>
+      <c r="I2" t="n" s="1745">
+        <v>14.96</v>
+      </c>
+      <c r="J2" t="n" s="1746">
+        <v>30.0</v>
+      </c>
+      <c r="K2" t="n" s="1749">
+        <v>30.0</v>
+      </c>
+      <c r="L2" t="n" s="1750">
+        <v>34.8</v>
+      </c>
+      <c r="M2" t="n" s="1751">
+        <v>6577.2</v>
+      </c>
+      <c r="N2" t="n" s="1752">
+        <v>80.02</v>
+      </c>
+      <c r="O2" t="n" s="1753">
+        <v>15123.779999999999</v>
+      </c>
+      <c r="P2" t="n" s="1754">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q2" t="n" s="1755">
+        <v>1931.5799999999997</v>
+      </c>
+      <c r="R2" t="n" s="1756">
+        <v>4.8</v>
+      </c>
+      <c r="S2" t="n" s="1757">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n" s="1758">
+        <v>15.039999999999996</v>
+      </c>
+      <c r="U2" t="n" s="1759">
+        <v>2842.559999999999</v>
+      </c>
+      <c r="V2" t="s" s="1767">
+        <v>49</v>
+      </c>
+      <c r="W2" t="s" s="1768">
+        <v>68</v>
+      </c>
+      <c r="X2" t="n" s="1769">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="1661"/>
+      <c r="B3" s="1664"/>
+      <c r="C3" s="1667"/>
+      <c r="D3" s="1670"/>
+      <c r="E3" s="1673"/>
+      <c r="F3" s="1676"/>
+      <c r="G3" s="1679"/>
+      <c r="H3" s="1682"/>
+      <c r="I3" t="n" s="1760">
+        <f>SUM(I2:I2)</f>
+        <v>14.96</v>
+      </c>
+      <c r="J3" s="1688"/>
+      <c r="K3" t="n" s="1761">
+        <f>SUM(K2:K2)</f>
+        <v>30.0</v>
+      </c>
+      <c r="L3" s="1694"/>
+      <c r="M3" t="n" s="1762">
+        <f>SUM(M2:M2)</f>
+        <v>6577.2</v>
+      </c>
+      <c r="N3" s="1700"/>
+      <c r="O3" t="n" s="1763">
+        <f>SUM(O2:O2)</f>
+        <v>15123.779999999999</v>
+      </c>
+      <c r="P3" s="1706"/>
+      <c r="Q3" t="n" s="1764">
+        <f>SUM(Q2:Q2)</f>
+        <v>1931.5799999999997</v>
+      </c>
+      <c r="R3" s="1712"/>
+      <c r="S3" t="n" s="1765">
+        <f>SUM(S2:S2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T3" s="1718"/>
+      <c r="U3" t="n" s="1766">
+        <f>SUM(U2:U2)</f>
+        <v>2842.559999999999</v>
+      </c>
+      <c r="V3" s="1724"/>
+      <c r="W3" s="1727"/>
+      <c r="X3" s="1730"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X4"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -217,6 +217,24 @@
   </si>
   <si>
     <t>AGUASCALIENTES, AGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RINES MAVIC F219 26" </t>
+  </si>
+  <si>
+    <t>RODADO 26" - MASAS DE BALERO SELLADO - SERVICIO RECIEN HECHO - GRASA DE LITIO - PIÑON DE 9s - PAR DE RINES - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666665</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1130.13698630137</t>
+  </si>
+  <si>
+    <t>2200.0</t>
   </si>
 </sst>
 </file>
@@ -228,7 +246,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="267" x14ac:knownFonts="1">
+  <fonts count="303" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1460,6 +1478,222 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -2047,7 +2281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2875,6 +3109,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="266" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="278" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="279" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="280" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="281" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="282" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="283" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="284" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="285" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="286" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="287" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="288" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="289" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="290" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="291" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="292" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="293" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="294" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="295" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="296" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="297" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="298" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="299" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3655,7 +3997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X8"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -4179,51 +4521,125 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="31"/>
-      <c r="I8" t="n" s="267">
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="277">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s" s="278">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s" s="279">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s" s="280">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="281">
+        <v>12</v>
+      </c>
+      <c r="F8" t="n" s="291">
+        <v>1.9466666666666665</v>
+      </c>
+      <c r="G8" t="n" s="287">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n" s="288">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="I8" t="n" s="289">
+        <v>1130.13698630137</v>
+      </c>
+      <c r="J8" t="n" s="290">
+        <v>2200.0</v>
+      </c>
+      <c r="K8" t="n" s="292">
+        <v>2200.0</v>
+      </c>
+      <c r="L8" t="n" s="293">
+        <v>2552.0</v>
+      </c>
+      <c r="M8" t="n" s="294">
+        <v>2552.0</v>
+      </c>
+      <c r="N8" t="n" s="295">
+        <v>2588.366</v>
+      </c>
+      <c r="O8" t="n" s="296">
+        <v>2588.366</v>
+      </c>
+      <c r="P8" t="n" s="297">
+        <v>387.8</v>
+      </c>
+      <c r="Q8" t="n" s="298">
+        <v>387.8</v>
+      </c>
+      <c r="R8" t="n" s="299">
+        <v>352.0</v>
+      </c>
+      <c r="S8" t="n" s="300">
+        <v>352.0</v>
+      </c>
+      <c r="T8" t="n" s="301">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="U8" t="n" s="302">
+        <v>1069.86301369863</v>
+      </c>
+      <c r="V8" t="s" s="310">
+        <v>49</v>
+      </c>
+      <c r="W8" t="s" s="311">
+        <v>50</v>
+      </c>
+      <c r="X8" t="n" s="312">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="31"/>
+      <c r="I9" t="n" s="303">
         <f>SUM(I2:I8)</f>
-        <v>588.7701089324619</v>
-      </c>
-      <c r="J8" s="34"/>
-      <c r="K8" t="n" s="268">
+        <v>1644.1070952338318</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" t="n" s="304">
         <f>SUM(K2:K8)</f>
-        <v>890.0</v>
-      </c>
-      <c r="L8" s="37"/>
-      <c r="M8" t="n" s="269">
+        <v>2940.0</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" t="n" s="305">
         <f>SUM(M2:M8)</f>
-        <v>41504.8</v>
-      </c>
-      <c r="N8" s="40"/>
-      <c r="O8" t="n" s="270">
+        <v>37444.8</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" t="n" s="306">
         <f>SUM(O2:O8)</f>
-        <v>75104.206</v>
-      </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" t="n" s="271">
+        <v>70036.351</v>
+      </c>
+      <c r="P9" s="43"/>
+      <c r="Q9" t="n" s="307">
         <f>SUM(Q2:Q8)</f>
-        <v>10605.719999999998</v>
-      </c>
-      <c r="R8" s="46"/>
-      <c r="S8" t="n" s="272">
+        <v>9051.719999999998</v>
+      </c>
+      <c r="R9" s="46"/>
+      <c r="S9" t="n" s="308">
         <f>SUM(S2:S8)</f>
-        <v>142.4</v>
-      </c>
-      <c r="T8" s="49"/>
-      <c r="U8" t="n" s="273">
+        <v>470.4</v>
+      </c>
+      <c r="T9" s="49"/>
+      <c r="U9" t="n" s="309">
         <f>SUM(U2:U8)</f>
-        <v>18662.909891067535</v>
-      </c>
-      <c r="V8" s="52"/>
-      <c r="W8" s="54"/>
+        <v>16875.172904766165</v>
+      </c>
+      <c r="V9" s="52"/>
+      <c r="W9" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -235,6 +235,36 @@
   </si>
   <si>
     <t>2200.0</t>
+  </si>
+  <si>
+    <t>ASIENTO GT</t>
+  </si>
+  <si>
+    <t>TALLA 144mm - MUY COMODO - SEMINUEVO</t>
+  </si>
+  <si>
+    <t>SEMINUEVO</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>380.0</t>
+  </si>
+  <si>
+    <t>BICI RUTA SCHWINN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLA L </t>
+  </si>
+  <si>
+    <t>2.5041736227045077</t>
+  </si>
+  <si>
+    <t>5990.0</t>
+  </si>
+  <si>
+    <t>15000.0</t>
   </si>
 </sst>
 </file>
@@ -246,7 +276,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="303" x14ac:knownFonts="1">
+  <fonts count="375" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1478,6 +1508,438 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -2281,7 +2743,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3217,6 +3679,222 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="302" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="314" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="315" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="316" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="317" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="318" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="319" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="320" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="321" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="322" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="323" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="324" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="325" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="326" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="327" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="328" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="329" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="330" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="331" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="332" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="333" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="334" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="335" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="350" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="351" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="352" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="353" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="354" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="355" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="356" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="357" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="358" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="359" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="360" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="361" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="362" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="363" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="364" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="365" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="366" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="367" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="368" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="369" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="370" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="371" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3997,7 +4675,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X9"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -4595,51 +5273,199 @@
         <v>3.0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="31"/>
-      <c r="I9" t="n" s="303">
-        <f>SUM(I2:I8)</f>
-        <v>1644.1070952338318</v>
-      </c>
-      <c r="J9" s="34"/>
-      <c r="K9" t="n" s="304">
-        <f>SUM(K2:K8)</f>
-        <v>2940.0</v>
-      </c>
-      <c r="L9" s="37"/>
-      <c r="M9" t="n" s="305">
-        <f>SUM(M2:M8)</f>
-        <v>37444.8</v>
-      </c>
-      <c r="N9" s="40"/>
-      <c r="O9" t="n" s="306">
-        <f>SUM(O2:O8)</f>
-        <v>70036.351</v>
-      </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" t="n" s="307">
-        <f>SUM(Q2:Q8)</f>
-        <v>9051.719999999998</v>
-      </c>
-      <c r="R9" s="46"/>
-      <c r="S9" t="n" s="308">
-        <f>SUM(S2:S8)</f>
-        <v>470.4</v>
-      </c>
-      <c r="T9" s="49"/>
-      <c r="U9" t="n" s="309">
-        <f>SUM(U2:U8)</f>
-        <v>16875.172904766165</v>
-      </c>
-      <c r="V9" s="52"/>
-      <c r="W9" s="54"/>
+    <row r="9" ht="28.8" customHeight="true">
+      <c r="A9" t="s" s="313">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s" s="314">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s" s="315">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s" s="316">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s" s="317">
+        <v>46</v>
+      </c>
+      <c r="F9" t="n" s="327">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="n" s="323">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n" s="324">
+        <v>380.0</v>
+      </c>
+      <c r="I9" t="n" s="325">
+        <v>380.0</v>
+      </c>
+      <c r="J9" t="n" s="326">
+        <v>380.0</v>
+      </c>
+      <c r="K9" t="n" s="328">
+        <v>380.0</v>
+      </c>
+      <c r="L9" t="n" s="329">
+        <v>440.8</v>
+      </c>
+      <c r="M9" t="n" s="330">
+        <v>440.8</v>
+      </c>
+      <c r="N9" t="n" s="331">
+        <v>452.08140000000003</v>
+      </c>
+      <c r="O9" t="n" s="332">
+        <v>452.08140000000003</v>
+      </c>
+      <c r="P9" t="n" s="333">
+        <v>71.12</v>
+      </c>
+      <c r="Q9" t="n" s="334">
+        <v>71.12</v>
+      </c>
+      <c r="R9" t="n" s="335">
+        <v>60.800000000000004</v>
+      </c>
+      <c r="S9" t="n" s="336">
+        <v>60.800000000000004</v>
+      </c>
+      <c r="T9" t="n" s="337">
+        <v>0.0</v>
+      </c>
+      <c r="U9" t="n" s="338">
+        <v>0.0</v>
+      </c>
+      <c r="V9" t="s" s="346">
+        <v>49</v>
+      </c>
+      <c r="W9" t="s" s="347">
+        <v>50</v>
+      </c>
+      <c r="X9" t="n" s="348">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.8" customHeight="true">
+      <c r="A10" t="s" s="349">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s" s="350">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s" s="351">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s" s="352">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s" s="353">
+        <v>46</v>
+      </c>
+      <c r="F10" t="n" s="363">
+        <v>2.5041736227045077</v>
+      </c>
+      <c r="G10" t="n" s="359">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n" s="360">
+        <v>5990.0</v>
+      </c>
+      <c r="I10" t="n" s="361">
+        <v>5990.0</v>
+      </c>
+      <c r="J10" t="n" s="362">
+        <v>15000.0</v>
+      </c>
+      <c r="K10" t="n" s="364">
+        <v>15000.0</v>
+      </c>
+      <c r="L10" t="n" s="365">
+        <v>17400.0</v>
+      </c>
+      <c r="M10" t="n" s="366">
+        <v>17400.0</v>
+      </c>
+      <c r="N10" t="n" s="367">
+        <v>17647.95</v>
+      </c>
+      <c r="O10" t="n" s="368">
+        <v>17647.95</v>
+      </c>
+      <c r="P10" t="n" s="369">
+        <v>2615.0</v>
+      </c>
+      <c r="Q10" t="n" s="370">
+        <v>2615.0</v>
+      </c>
+      <c r="R10" t="n" s="371">
+        <v>2400.0</v>
+      </c>
+      <c r="S10" t="n" s="372">
+        <v>2400.0</v>
+      </c>
+      <c r="T10" t="n" s="373">
+        <v>9010.0</v>
+      </c>
+      <c r="U10" t="n" s="374">
+        <v>9010.0</v>
+      </c>
+      <c r="V10" t="s" s="382">
+        <v>49</v>
+      </c>
+      <c r="W10" t="s" s="383">
+        <v>50</v>
+      </c>
+      <c r="X10" t="n" s="384">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="31"/>
+      <c r="I11" t="n" s="375">
+        <f>SUM(I2:I10)</f>
+        <v>8014.107095233832</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" t="n" s="376">
+        <f>SUM(K2:K10)</f>
+        <v>18320.0</v>
+      </c>
+      <c r="L11" s="37"/>
+      <c r="M11" t="n" s="377">
+        <f>SUM(M2:M10)</f>
+        <v>55285.600000000006</v>
+      </c>
+      <c r="N11" s="40"/>
+      <c r="O11" t="n" s="378">
+        <f>SUM(O2:O10)</f>
+        <v>88136.38239999999</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" t="n" s="379">
+        <f>SUM(Q2:Q10)</f>
+        <v>11737.839999999998</v>
+      </c>
+      <c r="R11" s="46"/>
+      <c r="S11" t="n" s="380">
+        <f>SUM(S2:S10)</f>
+        <v>2931.2</v>
+      </c>
+      <c r="T11" s="49"/>
+      <c r="U11" t="n" s="381">
+        <f>SUM(U2:U10)</f>
+        <v>25885.172904766165</v>
+      </c>
+      <c r="V11" s="52"/>
+      <c r="W11" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="126">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -409,6 +409,18 @@
   <si>
     <t>parral</t>
   </si>
+  <si>
+    <t>ASIENTO WTB ROCKET</t>
+  </si>
+  <si>
+    <t>TALLA 125mm - PARA MUJER - USADO</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1483" x14ac:knownFonts="1">
+  <fonts count="1519" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9163,6 +9175,222 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -9534,7 +9762,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1493">
+  <cellXfs count="1529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14010,6 +14238,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1482" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1483" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1484" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1485" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1486" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1487" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1488" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1489" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1490" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1491" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1492" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1493" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1494" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1495" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1496" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1497" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1498" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1499" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1500" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1501" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1502" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1503" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1504" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1505" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1506" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1507" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1508" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1509" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1510" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1511" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1512" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1513" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1514" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1515" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1516" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1517" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1518" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15024,7 +15360,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -15992,51 +16328,125 @@
         <v>12.0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="31"/>
-      <c r="I14" t="n" s="1189">
-        <f>SUM(I2:I13)</f>
-        <v>8287.107095233832</v>
-      </c>
-      <c r="J14" s="34"/>
-      <c r="K14" t="n" s="1190">
-        <f>SUM(K2:K13)</f>
-        <v>20848.0</v>
-      </c>
-      <c r="L14" s="37"/>
-      <c r="M14" t="n" s="1191">
-        <f>SUM(M2:M13)</f>
-        <v>61837.28000000001</v>
-      </c>
-      <c r="N14" s="40"/>
-      <c r="O14" t="n" s="1192">
-        <f>SUM(O2:O13)</f>
-        <v>92142.74779999998</v>
-      </c>
-      <c r="P14" s="43"/>
-      <c r="Q14" t="n" s="1193">
-        <f>SUM(Q2:Q13)</f>
-        <v>12995.591999999999</v>
-      </c>
-      <c r="R14" s="46"/>
-      <c r="S14" t="n" s="1194">
-        <f>SUM(S2:S13)</f>
-        <v>3335.68</v>
-      </c>
-      <c r="T14" s="49"/>
-      <c r="U14" t="n" s="1195">
-        <f>SUM(U2:U13)</f>
+    <row r="14" ht="28.8" customHeight="true">
+      <c r="A14" t="s" s="1493">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s" s="1494">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s" s="1495">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s" s="1496">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="1497">
+        <v>46</v>
+      </c>
+      <c r="F14" t="n" s="1507">
+        <v>1.0</v>
+      </c>
+      <c r="G14" t="n" s="1503">
+        <v>1.0</v>
+      </c>
+      <c r="H14" t="n" s="1504">
+        <v>280.0</v>
+      </c>
+      <c r="I14" t="n" s="1505">
+        <v>280.0</v>
+      </c>
+      <c r="J14" t="n" s="1506">
+        <v>280.0</v>
+      </c>
+      <c r="K14" t="n" s="1508">
+        <v>280.0</v>
+      </c>
+      <c r="L14" t="n" s="1509">
+        <v>324.8</v>
+      </c>
+      <c r="M14" t="n" s="1510">
+        <v>324.8</v>
+      </c>
+      <c r="N14" t="n" s="1511">
+        <v>334.4284</v>
+      </c>
+      <c r="O14" t="n" s="1512">
+        <v>334.4284</v>
+      </c>
+      <c r="P14" t="n" s="1513">
+        <v>53.72</v>
+      </c>
+      <c r="Q14" t="n" s="1514">
+        <v>53.72</v>
+      </c>
+      <c r="R14" t="n" s="1515">
+        <v>44.800000000000004</v>
+      </c>
+      <c r="S14" t="n" s="1516">
+        <v>44.800000000000004</v>
+      </c>
+      <c r="T14" t="n" s="1517">
+        <v>0.0</v>
+      </c>
+      <c r="U14" t="n" s="1518">
+        <v>0.0</v>
+      </c>
+      <c r="V14" t="s" s="1526">
+        <v>125</v>
+      </c>
+      <c r="W14" t="s" s="1527">
+        <v>50</v>
+      </c>
+      <c r="X14" t="n" s="1528">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="31"/>
+      <c r="I15" t="n" s="1519">
+        <f>SUM(I2:I14)</f>
+        <v>8567.107095233832</v>
+      </c>
+      <c r="J15" s="34"/>
+      <c r="K15" t="n" s="1520">
+        <f>SUM(K2:K14)</f>
+        <v>21128.0</v>
+      </c>
+      <c r="L15" s="37"/>
+      <c r="M15" t="n" s="1521">
+        <f>SUM(M2:M14)</f>
+        <v>62162.080000000016</v>
+      </c>
+      <c r="N15" s="40"/>
+      <c r="O15" t="n" s="1522">
+        <f>SUM(O2:O14)</f>
+        <v>92477.17619999999</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" t="n" s="1523">
+        <f>SUM(Q2:Q14)</f>
+        <v>13049.311999999998</v>
+      </c>
+      <c r="R15" s="46"/>
+      <c r="S15" t="n" s="1524">
+        <f>SUM(S2:S14)</f>
+        <v>3380.48</v>
+      </c>
+      <c r="T15" s="49"/>
+      <c r="U15" t="n" s="1525">
+        <f>SUM(U2:U14)</f>
         <v>29856.172904766165</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="54"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="126">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -431,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1519" x14ac:knownFonts="1">
+  <fonts count="1771" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9175,6 +9175,1518 @@
     <font>
       <name val="Calibri"/>
       <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -9762,7 +11274,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1529">
+  <cellXfs count="1781">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -14346,6 +15858,762 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1518" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1519" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1520" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1521" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1522" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1523" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1524" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1525" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1526" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1527" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1528" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1529" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1530" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1531" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1532" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1533" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1534" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1535" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1536" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1537" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1538" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1539" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1540" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1541" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1542" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1543" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1544" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1545" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1546" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1547" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1548" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1549" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1550" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1551" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1552" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1553" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1554" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1555" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1556" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1557" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1558" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1559" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1560" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1561" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1562" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1563" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1564" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1565" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1566" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1567" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1568" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1569" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1570" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1571" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1572" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1573" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1574" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1575" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1576" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1577" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1578" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1579" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1580" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1581" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1582" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1583" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1584" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1585" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1586" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1587" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1588" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1589" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1590" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1591" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1592" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1593" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1594" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1595" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1596" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1597" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1598" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1599" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1600" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1601" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1602" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1603" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1604" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1605" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1606" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1607" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1608" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1609" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1610" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1611" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1612" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1613" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1614" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1615" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1616" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1617" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1618" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1619" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1620" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1621" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1622" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1623" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1624" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1625" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1626" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1627" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1628" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1629" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1630" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1631" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1632" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1633" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1634" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1635" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1636" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1637" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1638" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1639" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1640" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1641" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1642" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1643" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1644" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1645" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1646" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1647" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1648" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1649" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1650" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1651" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1652" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1653" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1654" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1655" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1656" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1657" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1658" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1659" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1660" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1661" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1662" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1663" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1664" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1665" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1666" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1667" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1668" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1669" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1670" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1671" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1672" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1673" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1674" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1675" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1676" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1677" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1678" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1679" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1680" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1681" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1682" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1683" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1684" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1685" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1686" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1687" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1688" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1689" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1690" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1691" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1692" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1693" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1694" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1695" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1696" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1697" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1698" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1699" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1700" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1701" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1702" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1703" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1704" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1705" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1706" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1707" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1708" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1709" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1710" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1711" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1712" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1713" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1714" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1715" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1716" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1717" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1718" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1719" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1720" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1721" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1722" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1723" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1724" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1725" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1726" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1727" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1728" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1729" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1730" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1731" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1732" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1733" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1734" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1735" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1736" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1737" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1738" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1739" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1740" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1741" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1742" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1743" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1744" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1745" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1746" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1747" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1748" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1749" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1750" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1751" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1752" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1753" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1754" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1755" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1756" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1757" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1758" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1759" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1760" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1761" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1762" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1763" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1764" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1765" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1766" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1767" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1768" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1769" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1770" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -15360,7 +17628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -16402,51 +18670,569 @@
         <v>18.0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="31"/>
-      <c r="I15" t="n" s="1519">
-        <f>SUM(I2:I14)</f>
-        <v>8567.107095233832</v>
-      </c>
-      <c r="J15" s="34"/>
-      <c r="K15" t="n" s="1520">
-        <f>SUM(K2:K14)</f>
-        <v>21128.0</v>
-      </c>
-      <c r="L15" s="37"/>
-      <c r="M15" t="n" s="1521">
-        <f>SUM(M2:M14)</f>
-        <v>62162.080000000016</v>
-      </c>
-      <c r="N15" s="40"/>
-      <c r="O15" t="n" s="1522">
-        <f>SUM(O2:O14)</f>
-        <v>92477.17619999999</v>
-      </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" t="n" s="1523">
-        <f>SUM(Q2:Q14)</f>
-        <v>13049.311999999998</v>
-      </c>
-      <c r="R15" s="46"/>
-      <c r="S15" t="n" s="1524">
-        <f>SUM(S2:S14)</f>
-        <v>3380.48</v>
-      </c>
-      <c r="T15" s="49"/>
-      <c r="U15" t="n" s="1525">
-        <f>SUM(U2:U14)</f>
-        <v>29856.172904766165</v>
-      </c>
-      <c r="V15" s="52"/>
-      <c r="W15" s="54"/>
+    <row r="15" ht="28.8" customHeight="true">
+      <c r="A15" t="s" s="1529">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="1530">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="1531">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s" s="1532">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s" s="1533">
+        <v>46</v>
+      </c>
+      <c r="F15" t="n" s="1543">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G15" t="n" s="1539">
+        <v>1.0</v>
+      </c>
+      <c r="H15" t="n" s="1540">
+        <v>27.0</v>
+      </c>
+      <c r="I15" t="n" s="1541">
+        <v>27.0</v>
+      </c>
+      <c r="J15" t="n" s="1542">
+        <v>60.0</v>
+      </c>
+      <c r="K15" t="n" s="1544">
+        <v>60.0</v>
+      </c>
+      <c r="L15" t="n" s="1545">
+        <v>69.6</v>
+      </c>
+      <c r="M15" t="n" s="1546">
+        <v>3619.2</v>
+      </c>
+      <c r="N15" t="n" s="1547">
+        <v>75.5918</v>
+      </c>
+      <c r="O15" t="n" s="1548">
+        <v>3930.7736000000004</v>
+      </c>
+      <c r="P15" t="n" s="1549">
+        <v>15.44</v>
+      </c>
+      <c r="Q15" t="n" s="1550">
+        <v>802.88</v>
+      </c>
+      <c r="R15" t="n" s="1551">
+        <v>9.6</v>
+      </c>
+      <c r="S15" t="n" s="1552">
+        <v>9.6</v>
+      </c>
+      <c r="T15" t="n" s="1553">
+        <v>33.0</v>
+      </c>
+      <c r="U15" t="n" s="1554">
+        <v>1716.0</v>
+      </c>
+      <c r="V15" t="s" s="1562">
+        <v>49</v>
+      </c>
+      <c r="W15" t="s" s="1563">
+        <v>50</v>
+      </c>
+      <c r="X15" t="n" s="1564">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="16" ht="28.8" customHeight="true">
+      <c r="A16" t="s" s="1565">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s" s="1566">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s" s="1567">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s" s="1568">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s" s="1569">
+        <v>46</v>
+      </c>
+      <c r="F16" t="n" s="1579">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G16" t="n" s="1575">
+        <v>1.0</v>
+      </c>
+      <c r="H16" t="n" s="1576">
+        <v>27.0</v>
+      </c>
+      <c r="I16" t="n" s="1577">
+        <v>27.0</v>
+      </c>
+      <c r="J16" t="n" s="1578">
+        <v>60.0</v>
+      </c>
+      <c r="K16" t="n" s="1580">
+        <v>60.0</v>
+      </c>
+      <c r="L16" t="n" s="1581">
+        <v>69.6</v>
+      </c>
+      <c r="M16" t="n" s="1582">
+        <v>3549.6</v>
+      </c>
+      <c r="N16" t="n" s="1583">
+        <v>75.5918</v>
+      </c>
+      <c r="O16" t="n" s="1584">
+        <v>3855.1818000000003</v>
+      </c>
+      <c r="P16" t="n" s="1585">
+        <v>15.44</v>
+      </c>
+      <c r="Q16" t="n" s="1586">
+        <v>787.4399999999999</v>
+      </c>
+      <c r="R16" t="n" s="1587">
+        <v>9.6</v>
+      </c>
+      <c r="S16" t="n" s="1588">
+        <v>9.6</v>
+      </c>
+      <c r="T16" t="n" s="1589">
+        <v>33.0</v>
+      </c>
+      <c r="U16" t="n" s="1590">
+        <v>1683.0</v>
+      </c>
+      <c r="V16" t="s" s="1598">
+        <v>49</v>
+      </c>
+      <c r="W16" t="s" s="1599">
+        <v>50</v>
+      </c>
+      <c r="X16" t="n" s="1600">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="17" ht="28.8" customHeight="true">
+      <c r="A17" t="s" s="1601">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s" s="1602">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s" s="1603">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s" s="1604">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s" s="1605">
+        <v>46</v>
+      </c>
+      <c r="F17" t="n" s="1615">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G17" t="n" s="1611">
+        <v>1.0</v>
+      </c>
+      <c r="H17" t="n" s="1612">
+        <v>27.0</v>
+      </c>
+      <c r="I17" t="n" s="1613">
+        <v>27.0</v>
+      </c>
+      <c r="J17" t="n" s="1614">
+        <v>60.0</v>
+      </c>
+      <c r="K17" t="n" s="1616">
+        <v>60.0</v>
+      </c>
+      <c r="L17" t="n" s="1617">
+        <v>69.6</v>
+      </c>
+      <c r="M17" t="n" s="1618">
+        <v>3479.9999999999995</v>
+      </c>
+      <c r="N17" t="n" s="1619">
+        <v>75.5918</v>
+      </c>
+      <c r="O17" t="n" s="1620">
+        <v>3779.59</v>
+      </c>
+      <c r="P17" t="n" s="1621">
+        <v>15.44</v>
+      </c>
+      <c r="Q17" t="n" s="1622">
+        <v>772.0</v>
+      </c>
+      <c r="R17" t="n" s="1623">
+        <v>9.6</v>
+      </c>
+      <c r="S17" t="n" s="1624">
+        <v>9.6</v>
+      </c>
+      <c r="T17" t="n" s="1625">
+        <v>33.0</v>
+      </c>
+      <c r="U17" t="n" s="1626">
+        <v>1650.0</v>
+      </c>
+      <c r="V17" t="s" s="1634">
+        <v>49</v>
+      </c>
+      <c r="W17" t="s" s="1635">
+        <v>50</v>
+      </c>
+      <c r="X17" t="n" s="1636">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="18" ht="28.8" customHeight="true">
+      <c r="A18" t="s" s="1637">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s" s="1638">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s" s="1639">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s" s="1640">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s" s="1641">
+        <v>46</v>
+      </c>
+      <c r="F18" t="n" s="1651">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G18" t="n" s="1647">
+        <v>1.0</v>
+      </c>
+      <c r="H18" t="n" s="1648">
+        <v>27.0</v>
+      </c>
+      <c r="I18" t="n" s="1649">
+        <v>27.0</v>
+      </c>
+      <c r="J18" t="n" s="1650">
+        <v>60.0</v>
+      </c>
+      <c r="K18" t="n" s="1652">
+        <v>60.0</v>
+      </c>
+      <c r="L18" t="n" s="1653">
+        <v>69.6</v>
+      </c>
+      <c r="M18" t="n" s="1654">
+        <v>3410.3999999999996</v>
+      </c>
+      <c r="N18" t="n" s="1655">
+        <v>75.5918</v>
+      </c>
+      <c r="O18" t="n" s="1656">
+        <v>3703.9982000000005</v>
+      </c>
+      <c r="P18" t="n" s="1657">
+        <v>15.44</v>
+      </c>
+      <c r="Q18" t="n" s="1658">
+        <v>756.56</v>
+      </c>
+      <c r="R18" t="n" s="1659">
+        <v>9.6</v>
+      </c>
+      <c r="S18" t="n" s="1660">
+        <v>9.6</v>
+      </c>
+      <c r="T18" t="n" s="1661">
+        <v>33.0</v>
+      </c>
+      <c r="U18" t="n" s="1662">
+        <v>1617.0</v>
+      </c>
+      <c r="V18" t="s" s="1670">
+        <v>49</v>
+      </c>
+      <c r="W18" t="s" s="1671">
+        <v>50</v>
+      </c>
+      <c r="X18" t="n" s="1672">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="19" ht="28.8" customHeight="true">
+      <c r="A19" t="s" s="1673">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="1674">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="1675">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s" s="1676">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s" s="1677">
+        <v>46</v>
+      </c>
+      <c r="F19" t="n" s="1687">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G19" t="n" s="1683">
+        <v>1.0</v>
+      </c>
+      <c r="H19" t="n" s="1684">
+        <v>27.0</v>
+      </c>
+      <c r="I19" t="n" s="1685">
+        <v>27.0</v>
+      </c>
+      <c r="J19" t="n" s="1686">
+        <v>60.0</v>
+      </c>
+      <c r="K19" t="n" s="1688">
+        <v>60.0</v>
+      </c>
+      <c r="L19" t="n" s="1689">
+        <v>69.6</v>
+      </c>
+      <c r="M19" t="n" s="1690">
+        <v>3340.7999999999997</v>
+      </c>
+      <c r="N19" t="n" s="1691">
+        <v>75.5918</v>
+      </c>
+      <c r="O19" t="n" s="1692">
+        <v>3628.4064000000003</v>
+      </c>
+      <c r="P19" t="n" s="1693">
+        <v>15.44</v>
+      </c>
+      <c r="Q19" t="n" s="1694">
+        <v>741.12</v>
+      </c>
+      <c r="R19" t="n" s="1695">
+        <v>9.6</v>
+      </c>
+      <c r="S19" t="n" s="1696">
+        <v>9.6</v>
+      </c>
+      <c r="T19" t="n" s="1697">
+        <v>33.0</v>
+      </c>
+      <c r="U19" t="n" s="1698">
+        <v>1584.0</v>
+      </c>
+      <c r="V19" t="s" s="1706">
+        <v>49</v>
+      </c>
+      <c r="W19" t="s" s="1707">
+        <v>50</v>
+      </c>
+      <c r="X19" t="n" s="1708">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="20" ht="28.8" customHeight="true">
+      <c r="A20" t="s" s="1709">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s" s="1710">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s" s="1711">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s" s="1712">
+        <v>45</v>
+      </c>
+      <c r="E20" t="s" s="1713">
+        <v>46</v>
+      </c>
+      <c r="F20" t="n" s="1723">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G20" t="n" s="1719">
+        <v>1.0</v>
+      </c>
+      <c r="H20" t="n" s="1720">
+        <v>27.0</v>
+      </c>
+      <c r="I20" t="n" s="1721">
+        <v>27.0</v>
+      </c>
+      <c r="J20" t="n" s="1722">
+        <v>60.0</v>
+      </c>
+      <c r="K20" t="n" s="1724">
+        <v>60.0</v>
+      </c>
+      <c r="L20" t="n" s="1725">
+        <v>69.6</v>
+      </c>
+      <c r="M20" t="n" s="1726">
+        <v>3271.2</v>
+      </c>
+      <c r="N20" t="n" s="1727">
+        <v>75.5918</v>
+      </c>
+      <c r="O20" t="n" s="1728">
+        <v>3552.8146</v>
+      </c>
+      <c r="P20" t="n" s="1729">
+        <v>15.44</v>
+      </c>
+      <c r="Q20" t="n" s="1730">
+        <v>725.68</v>
+      </c>
+      <c r="R20" t="n" s="1731">
+        <v>9.6</v>
+      </c>
+      <c r="S20" t="n" s="1732">
+        <v>9.6</v>
+      </c>
+      <c r="T20" t="n" s="1733">
+        <v>33.0</v>
+      </c>
+      <c r="U20" t="n" s="1734">
+        <v>1551.0</v>
+      </c>
+      <c r="V20" t="s" s="1742">
+        <v>49</v>
+      </c>
+      <c r="W20" t="s" s="1743">
+        <v>50</v>
+      </c>
+      <c r="X20" t="n" s="1744">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="21" ht="28.8" customHeight="true">
+      <c r="A21" t="s" s="1745">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="1746">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s" s="1747">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s" s="1748">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s" s="1749">
+        <v>46</v>
+      </c>
+      <c r="F21" t="n" s="1759">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G21" t="n" s="1755">
+        <v>1.0</v>
+      </c>
+      <c r="H21" t="n" s="1756">
+        <v>27.0</v>
+      </c>
+      <c r="I21" t="n" s="1757">
+        <v>27.0</v>
+      </c>
+      <c r="J21" t="n" s="1758">
+        <v>60.0</v>
+      </c>
+      <c r="K21" t="n" s="1760">
+        <v>60.0</v>
+      </c>
+      <c r="L21" t="n" s="1761">
+        <v>69.6</v>
+      </c>
+      <c r="M21" t="n" s="1762">
+        <v>3201.6</v>
+      </c>
+      <c r="N21" t="n" s="1763">
+        <v>75.5918</v>
+      </c>
+      <c r="O21" t="n" s="1764">
+        <v>3477.2228000000005</v>
+      </c>
+      <c r="P21" t="n" s="1765">
+        <v>15.44</v>
+      </c>
+      <c r="Q21" t="n" s="1766">
+        <v>710.24</v>
+      </c>
+      <c r="R21" t="n" s="1767">
+        <v>9.6</v>
+      </c>
+      <c r="S21" t="n" s="1768">
+        <v>9.6</v>
+      </c>
+      <c r="T21" t="n" s="1769">
+        <v>33.0</v>
+      </c>
+      <c r="U21" t="n" s="1770">
+        <v>1518.0</v>
+      </c>
+      <c r="V21" t="s" s="1778">
+        <v>49</v>
+      </c>
+      <c r="W21" t="s" s="1779">
+        <v>50</v>
+      </c>
+      <c r="X21" t="n" s="1780">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="31"/>
+      <c r="I22" t="n" s="1771">
+        <f>SUM(I2:I21)</f>
+        <v>8756.107095233832</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" t="n" s="1772">
+        <f>SUM(K2:K21)</f>
+        <v>21548.0</v>
+      </c>
+      <c r="L22" s="37"/>
+      <c r="M22" t="n" s="1773">
+        <f>SUM(M2:M21)</f>
+        <v>86034.88000000002</v>
+      </c>
+      <c r="N22" s="40"/>
+      <c r="O22" t="n" s="1774">
+        <f>SUM(O2:O21)</f>
+        <v>118405.1636</v>
+      </c>
+      <c r="P22" s="43"/>
+      <c r="Q22" t="n" s="1775">
+        <f>SUM(Q2:Q21)</f>
+        <v>18345.232</v>
+      </c>
+      <c r="R22" s="46"/>
+      <c r="S22" t="n" s="1776">
+        <f>SUM(S2:S21)</f>
+        <v>3447.6799999999994</v>
+      </c>
+      <c r="T22" s="49"/>
+      <c r="U22" t="n" s="1777">
+        <f>SUM(U2:U21)</f>
+        <v>41175.172904766165</v>
+      </c>
+      <c r="V22" s="52"/>
+      <c r="W22" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="127">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -421,6 +421,9 @@
   <si>
     <t>Local</t>
   </si>
+  <si>
+    <t>54.0</t>
+  </si>
 </sst>
 </file>
 
@@ -431,7 +434,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="1771" x14ac:knownFonts="1">
+  <fonts count="1809" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10903,6 +10906,234 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -11274,7 +11505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1781">
+  <cellXfs count="1819">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -16614,6 +16845,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1770" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1771" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1772" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1773" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1774" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1775" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1776" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1777" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1778" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1779" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1780" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1781" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1782" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1783" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1784" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1785" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1786" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1787" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1788" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1789" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1790" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1791" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1792" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1793" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1794" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1795" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1796" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1797" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1798" fillId="13" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1799" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1800" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1801" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1802" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1803" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1804" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1805" fillId="11" borderId="10" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1806" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1807" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1808" fillId="13" borderId="10" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -19853,7 +20198,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20256,51 +20601,125 @@
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="true">
-      <c r="A6" s="686"/>
-      <c r="B6" s="689"/>
-      <c r="C6" s="692"/>
-      <c r="D6" s="695"/>
-      <c r="E6" s="698"/>
-      <c r="F6" s="701"/>
-      <c r="G6" s="704"/>
-      <c r="H6" s="707"/>
-      <c r="I6" t="n" s="1373">
-        <f>SUM(I2:I5)</f>
-        <v>425.0</v>
-      </c>
-      <c r="J6" s="713"/>
-      <c r="K6" t="n" s="1374">
-        <f>SUM(K2:K5)</f>
-        <v>4376.0</v>
-      </c>
-      <c r="L6" s="719"/>
-      <c r="M6" t="n" s="1375">
-        <f>SUM(M2:M5)</f>
-        <v>5076.159999999999</v>
-      </c>
-      <c r="N6" s="725"/>
-      <c r="O6" t="n" s="1376">
-        <f>SUM(O2:O5)</f>
-        <v>0.0</v>
-      </c>
-      <c r="P6" s="731"/>
-      <c r="Q6" t="n" s="1377">
-        <f>SUM(Q2:Q5)</f>
-        <v>735.708</v>
-      </c>
-      <c r="R6" s="737"/>
-      <c r="S6" t="n" s="1378">
-        <f>SUM(S2:S5)</f>
-        <v>700.1600000000001</v>
-      </c>
-      <c r="T6" s="743"/>
-      <c r="U6" t="n" s="1379">
-        <f>SUM(U2:U5)</f>
-        <v>3950.9999999999995</v>
-      </c>
-      <c r="V6" s="749"/>
-      <c r="W6" s="752"/>
-      <c r="X6" s="755"/>
+      <c r="A6" t="s" s="1781">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s" s="1791">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s" s="1783">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s" s="1784">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s" s="1785">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n" s="1797">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G6" t="n" s="1792">
+        <v>2.0</v>
+      </c>
+      <c r="H6" t="n" s="1793">
+        <v>27.0</v>
+      </c>
+      <c r="I6" t="n" s="1794">
+        <v>54.0</v>
+      </c>
+      <c r="J6" t="n" s="1795">
+        <v>60.0</v>
+      </c>
+      <c r="K6" t="n" s="1798">
+        <v>120.0</v>
+      </c>
+      <c r="L6" t="n" s="1799">
+        <v>69.6</v>
+      </c>
+      <c r="M6" t="n" s="1800">
+        <v>3131.9999999999995</v>
+      </c>
+      <c r="N6" t="n" s="1801">
+        <v>75.5918</v>
+      </c>
+      <c r="O6" t="n" s="1802">
+        <v>3401.6310000000003</v>
+      </c>
+      <c r="P6" t="n" s="1803">
+        <v>15.44</v>
+      </c>
+      <c r="Q6" t="n" s="1804">
+        <v>694.8</v>
+      </c>
+      <c r="R6" t="n" s="1805">
+        <v>9.6</v>
+      </c>
+      <c r="S6" t="n" s="1806">
+        <v>19.2</v>
+      </c>
+      <c r="T6" t="n" s="1807">
+        <v>33.0</v>
+      </c>
+      <c r="U6" t="n" s="1808">
+        <v>1485.0</v>
+      </c>
+      <c r="V6" t="s" s="1816">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s" s="1817">
+        <v>91</v>
+      </c>
+      <c r="X6" t="n" s="1818">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="7" ht="30.0" customHeight="true">
+      <c r="A7" s="686"/>
+      <c r="B7" s="689"/>
+      <c r="C7" s="692"/>
+      <c r="D7" s="695"/>
+      <c r="E7" s="698"/>
+      <c r="F7" s="701"/>
+      <c r="G7" s="704"/>
+      <c r="H7" s="707"/>
+      <c r="I7" t="n" s="1809">
+        <f>SUM(I2:I6)</f>
+        <v>479.0</v>
+      </c>
+      <c r="J7" s="713"/>
+      <c r="K7" t="n" s="1810">
+        <f>SUM(K2:K6)</f>
+        <v>4496.0</v>
+      </c>
+      <c r="L7" s="719"/>
+      <c r="M7" t="n" s="1811">
+        <f>SUM(M2:M6)</f>
+        <v>8208.159999999998</v>
+      </c>
+      <c r="N7" s="725"/>
+      <c r="O7" t="n" s="1812">
+        <f>SUM(O2:O6)</f>
+        <v>3401.6310000000003</v>
+      </c>
+      <c r="P7" s="731"/>
+      <c r="Q7" t="n" s="1813">
+        <f>SUM(Q2:Q6)</f>
+        <v>1430.5079999999998</v>
+      </c>
+      <c r="R7" s="737"/>
+      <c r="S7" t="n" s="1814">
+        <f>SUM(S2:S6)</f>
+        <v>719.3600000000001</v>
+      </c>
+      <c r="T7" s="743"/>
+      <c r="U7" t="n" s="1815">
+        <f>SUM(U2:U6)</f>
+        <v>5436.0</v>
+      </c>
+      <c r="V7" s="749"/>
+      <c r="W7" s="752"/>
+      <c r="X7" s="755"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1892,10 +1892,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="58.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="10" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="21" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="58.5546875" collapsed="true"/>
+    <col min="3" max="10" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="11" max="21" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="22" max="23" customWidth="true" width="40.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2373,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2381,10 +2381,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="58.5546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="22" width="19.5546875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="30.6640625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.5546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="58.5546875" collapsed="true"/>
+    <col min="3" max="22" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="30.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2536,125 +2536,51 @@
       </c>
     </row>
     <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="112" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="114" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="121">
-        <v>1</v>
-      </c>
-      <c r="G3" s="117">
-        <v>1</v>
-      </c>
-      <c r="H3" s="118">
-        <v>200</v>
-      </c>
-      <c r="I3" s="119">
-        <v>200</v>
-      </c>
-      <c r="J3" s="120">
-        <v>200</v>
-      </c>
-      <c r="K3" s="122">
-        <v>200</v>
-      </c>
-      <c r="L3" s="123">
-        <v>232</v>
-      </c>
-      <c r="M3" s="124">
-        <v>232</v>
-      </c>
-      <c r="N3" s="125">
-        <v>240.30600000000001</v>
-      </c>
-      <c r="O3" s="126">
-        <v>240.30600000000001</v>
-      </c>
-      <c r="P3" s="127">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="Q3" s="128">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="R3" s="129">
-        <v>32</v>
-      </c>
-      <c r="S3" s="130">
-        <v>32</v>
-      </c>
-      <c r="T3" s="131">
-        <v>0</v>
-      </c>
-      <c r="U3" s="132">
-        <v>0</v>
-      </c>
-      <c r="V3" s="133" t="s">
-        <v>32</v>
-      </c>
-      <c r="W3" s="134" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="135">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="136">
-        <f>SUM(I2:I4)</f>
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="136">
+        <f>SUM(I2:I3)</f>
         <v>1472</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="137">
-        <f>SUM(K2:K4)</f>
+      <c r="J3" s="64"/>
+      <c r="K3" s="137">
+        <f>SUM(K2:K3)</f>
         <v>1049</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="138">
-        <f>SUM(M2:M4)</f>
+      <c r="L3" s="67"/>
+      <c r="M3" s="138">
+        <f>SUM(M2:M3)</f>
         <v>3861.6399999999994</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" s="139">
-        <f>SUM(O2:O4)</f>
+      <c r="N3" s="70"/>
+      <c r="O3" s="139">
+        <f>SUM(O2:O3)</f>
         <v>4280.9122000000007</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="140">
-        <f>SUM(Q2:Q4)</f>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="140">
+        <f>SUM(Q2:Q3)</f>
         <v>784.24599999999987</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" s="141">
-        <f>SUM(S2:S4)</f>
+      <c r="R3" s="76"/>
+      <c r="S3" s="141">
+        <f>SUM(S2:S3)</f>
         <v>167.84</v>
       </c>
-      <c r="T4" s="79"/>
-      <c r="U4" s="142">
-        <f>SUM(U2:U4)</f>
+      <c r="T3" s="79"/>
+      <c r="U3" s="142">
+        <f>SUM(U2:U3)</f>
         <v>830.99999999999989</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="86"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -15,6 +15,11 @@
   <sheets>
     <sheet name="ENRIQUE OROZCO LUEVANO" sheetId="1" r:id="rId1"/>
     <sheet name="PACO CHAVEZ" sheetId="2" r:id="rId2"/>
+    <sheet name="PEPITO" r:id="rId7" sheetId="3"/>
+    <sheet name="EL JERINGAS" r:id="rId8" sheetId="4"/>
+    <sheet name="ALBERTO" r:id="rId9" sheetId="5"/>
+    <sheet name="JUANITO SOTO" r:id="rId10" sheetId="6"/>
+    <sheet name="GABRIEL PEREZ" r:id="rId11" sheetId="7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -203,16 +208,101 @@
   <si>
     <t>SEMINUEVO</t>
   </si>
+  <si>
+    <t>GRIPS LIZARD</t>
+  </si>
+  <si>
+    <t>DOBLE TORNILLO DE SUJECIÓN - USADO</t>
+  </si>
+  <si>
+    <t>1.9466666666666668</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>77.05479452054794</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>DSADASS</t>
+  </si>
+  <si>
+    <t>POTENCIA FUJI</t>
+  </si>
+  <si>
+    <t>ALTURA REGULABLE - PARA MANUBRIO 25.4mm - 15cm DE LARGO - USADO</t>
+  </si>
+  <si>
+    <t>128.42465753424656</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>DASDSADS</t>
+  </si>
+  <si>
+    <t>2.2222222222222223</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>FDSFS</t>
+  </si>
+  <si>
+    <t>2.0053475935828877</t>
+  </si>
+  <si>
+    <t>14.96</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>DSAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESVIADOR DELANTERO SHIMANO SLX </t>
+  </si>
+  <si>
+    <t>PARA 3 PLATOS - E-TYPE - ANCLAJE A 2 TORNILLOS - USADO</t>
+  </si>
+  <si>
+    <t>CAMBER 29"</t>
+  </si>
+  <si>
+    <t>1.2405405405405405</t>
+  </si>
+  <si>
+    <t>322.4400871459695</t>
+  </si>
+  <si>
+    <t>400.0</t>
+  </si>
+  <si>
+    <t>CHIHUAHUA, CHIH.</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="134" x14ac:knownFonts="1">
+  <fonts count="722" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,8 +1117,3536 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,8 +4721,23 @@
         <fgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="BFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1170,12 +4803,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="731">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1601,6 +5252,1770 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="133" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="218" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="219" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="220" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="221" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="223" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="224" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="225" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="226" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="227" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="228" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="229" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="230" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="231" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="232" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="233" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="234" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="235" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="236" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="237" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="238" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="239" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="240" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="328" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="329" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="330" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="331" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="333" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="334" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="335" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="336" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="337" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="338" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="339" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="340" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="341" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="342" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="343" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="344" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="345" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="346" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="347" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="348" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="349" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="350" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="438" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="439" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="440" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="441" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="443" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="444" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="445" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="446" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="447" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="448" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="449" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="450" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="451" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="452" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="453" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="454" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="456" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="457" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="458" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="459" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="460" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="548" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="549" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="550" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="551" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="553" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="554" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="555" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="556" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="557" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="558" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="559" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="560" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="561" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="563" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="564" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="571" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="572" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="573" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="574" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="575" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="576" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="577" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="578" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="11" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="659" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="661" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="663" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="664" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="665" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="666" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="667" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="668" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="669" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="670" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="671" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="672" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="673" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="674" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="675" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="676" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="677" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="678" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="679" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="680" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="697" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="703" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="706" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="709" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="712" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="715" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="716" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="717" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="718" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,65 +7398,65 @@
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="10" t="n">
         <f>14600/7500</f>
         <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="10">
         <v>1</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="11" t="n">
         <f>J2/F2</f>
-        <v>205.47945205479451</v>
-      </c>
-      <c r="I2" s="11">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <f t="shared" ref="I2" si="0">H2*G2</f>
-        <v>205.47945205479451</v>
+        <v>205.4794520547945</v>
       </c>
       <c r="J2" s="11">
         <v>400</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="11" t="n">
         <f t="shared" ref="K2" si="1">J2*G2</f>
-        <v>400</v>
-      </c>
-      <c r="L2" s="11">
+        <v>400.0</v>
+      </c>
+      <c r="L2" s="11" t="n">
         <f t="shared" ref="L2" si="2">J2+R2</f>
-        <v>464</v>
-      </c>
-      <c r="M2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="M2" s="11" t="n">
         <f t="shared" ref="M2" si="3">L2*G2</f>
-        <v>464</v>
-      </c>
-      <c r="N2" s="11">
+        <v>464.0</v>
+      </c>
+      <c r="N2" s="11" t="n">
         <f t="shared" ref="N2" si="4">J2+R2+P2+35</f>
         <v>573.6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="11" t="n">
         <f t="shared" ref="O2" si="5">N2*G2</f>
         <v>573.6</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="11" t="n">
         <f t="shared" ref="P2" si="6">(L2*0.15)+5</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" s="11" t="n">
         <f t="shared" ref="Q2" si="7">P2*G2</f>
-        <v>74.599999999999994</v>
-      </c>
-      <c r="R2" s="11">
+        <v>74.6</v>
+      </c>
+      <c r="R2" s="11" t="n">
         <f t="shared" ref="R2" si="8">J2*0.16</f>
-        <v>64</v>
-      </c>
-      <c r="S2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="S2" s="11" t="n">
         <f t="shared" ref="S2" si="9">R2*G2</f>
-        <v>64</v>
-      </c>
-      <c r="T2" s="11">
+        <v>64.0</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <f t="shared" ref="T2" si="10">L2-H2-R2</f>
         <v>194.52054794520552</v>
       </c>
-      <c r="U2" s="11">
+      <c r="U2" s="11" t="n">
         <f t="shared" ref="U2" si="11">T2*G2</f>
         <v>194.52054794520552</v>
       </c>
@@ -2135,37 +7550,37 @@
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
-      <c r="I4" s="37">
+      <c r="I4" s="37" t="n">
         <f>SUM(I2:I3)</f>
         <v>280.27945205479455</v>
       </c>
       <c r="J4" s="14"/>
-      <c r="K4" s="38">
+      <c r="K4" s="38" t="n">
         <f>SUM(K2:K3)</f>
-        <v>550</v>
+        <v>550.0</v>
       </c>
       <c r="L4" s="14"/>
-      <c r="M4" s="39">
+      <c r="M4" s="39" t="n">
         <f>SUM(M2:M3)</f>
-        <v>7249.9999999999991</v>
+        <v>7249.999999999999</v>
       </c>
       <c r="N4" s="14"/>
-      <c r="O4" s="40">
+      <c r="O4" s="40" t="n">
         <f>SUM(O2:O3)</f>
-        <v>8431.3005000000012</v>
+        <v>8431.300500000001</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="41">
+      <c r="Q4" s="41" t="n">
         <f>SUM(Q2:Q3)</f>
         <v>2067.5</v>
       </c>
       <c r="R4" s="14"/>
-      <c r="S4" s="42">
+      <c r="S4" s="42" t="n">
         <f>SUM(S2:S3)</f>
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="T4" s="14"/>
-      <c r="U4" s="43">
+      <c r="U4" s="43" t="n">
         <f>SUM(U2:U3)</f>
         <v>3127.3205479452054</v>
       </c>
@@ -2373,7 +7788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2381,8 +7796,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="58.5546875" collapsed="true"/>
-    <col min="3" max="22" customWidth="true" width="19.5546875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="22" customWidth="true" width="19.5546875" collapsed="true"/>
     <col min="23" max="23" customWidth="true" width="30.6640625" collapsed="true"/>
     <col min="24" max="24" customWidth="true" width="19.5546875" collapsed="true"/>
   </cols>
@@ -2461,7 +7885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
         <v>49</v>
       </c>
@@ -2535,54 +7959,1298 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="136">
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="693">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="703">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s" s="695">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s" s="696">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s" s="697">
+        <v>29</v>
+      </c>
+      <c r="F3" t="n" s="709">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G3" t="n" s="704">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="705">
+        <v>14.96</v>
+      </c>
+      <c r="I3" t="n" s="706">
+        <v>14.96</v>
+      </c>
+      <c r="J3" t="n" s="707">
+        <v>30.0</v>
+      </c>
+      <c r="K3" t="n" s="710">
+        <v>30.0</v>
+      </c>
+      <c r="L3" t="n" s="711">
+        <v>34.8</v>
+      </c>
+      <c r="M3" t="n" s="712">
+        <v>6716.4</v>
+      </c>
+      <c r="N3" t="n" s="713">
+        <v>40.2959</v>
+      </c>
+      <c r="O3" t="n" s="714">
+        <v>7777.108700000001</v>
+      </c>
+      <c r="P3" t="n" s="715">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q3" t="n" s="716">
+        <v>1972.4599999999998</v>
+      </c>
+      <c r="R3" t="n" s="717">
+        <v>4.8</v>
+      </c>
+      <c r="S3" t="n" s="718">
+        <v>4.8</v>
+      </c>
+      <c r="T3" t="n" s="719">
+        <v>15.04</v>
+      </c>
+      <c r="U3" t="n" s="720">
+        <v>2902.72</v>
+      </c>
+      <c r="V3" t="s" s="728">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s" s="729">
+        <v>52</v>
+      </c>
+      <c r="X3" t="n" s="730">
+        <v>44.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="61"/>
+      <c r="I4" t="n" s="721">
         <f>SUM(I2:I3)</f>
-        <v>1472</v>
-      </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="137">
+        <v>41.96</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" t="n" s="722">
         <f>SUM(K2:K3)</f>
-        <v>1049</v>
-      </c>
-      <c r="L3" s="67"/>
-      <c r="M3" s="138">
+        <v>90.0</v>
+      </c>
+      <c r="L4" s="67"/>
+      <c r="M4" t="n" s="723">
         <f>SUM(M2:M3)</f>
-        <v>3861.6399999999994</v>
-      </c>
-      <c r="N3" s="70"/>
-      <c r="O3" s="139">
+        <v>9430.8</v>
+      </c>
+      <c r="N4" s="70"/>
+      <c r="O4" t="n" s="724">
         <f>SUM(O2:O3)</f>
-        <v>4280.9122000000007</v>
-      </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="140">
+        <v>10725.188900000001</v>
+      </c>
+      <c r="P4" s="73"/>
+      <c r="Q4" t="n" s="725">
         <f>SUM(Q2:Q3)</f>
-        <v>784.24599999999987</v>
-      </c>
-      <c r="R3" s="76"/>
-      <c r="S3" s="141">
+        <v>2574.62</v>
+      </c>
+      <c r="R4" s="76"/>
+      <c r="S4" t="n" s="726">
         <f>SUM(S2:S3)</f>
-        <v>167.84</v>
-      </c>
-      <c r="T3" s="79"/>
-      <c r="U3" s="142">
+        <v>14.399999999999999</v>
+      </c>
+      <c r="T4" s="79"/>
+      <c r="U4" t="n" s="727">
         <f>SUM(U2:U3)</f>
-        <v>830.99999999999989</v>
-      </c>
-      <c r="V3" s="82"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="86"/>
+        <v>4189.719999999999</v>
+      </c>
+      <c r="V4" s="82"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="145" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="157" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="160" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="169" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="172" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="181" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="184" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="187" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="190" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="193" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="196" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="199" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="202" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="205" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="208" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="211" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="214" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="215">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s" s="225">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s" s="217">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="218">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="219">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="231">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G2" t="n" s="226">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="227">
+        <v>77.05479452054794</v>
+      </c>
+      <c r="I2" t="n" s="228">
+        <v>77.05479452054794</v>
+      </c>
+      <c r="J2" t="n" s="229">
+        <v>150.0</v>
+      </c>
+      <c r="K2" t="n" s="232">
+        <v>150.0</v>
+      </c>
+      <c r="L2" t="n" s="233">
+        <v>174.0</v>
+      </c>
+      <c r="M2" t="n" s="234">
+        <v>174.0</v>
+      </c>
+      <c r="N2" t="n" s="235">
+        <v>181.4795</v>
+      </c>
+      <c r="O2" t="n" s="236">
+        <v>181.4795</v>
+      </c>
+      <c r="P2" t="n" s="237">
+        <v>31.099999999999998</v>
+      </c>
+      <c r="Q2" t="n" s="238">
+        <v>31.099999999999998</v>
+      </c>
+      <c r="R2" t="n" s="239">
+        <v>24.0</v>
+      </c>
+      <c r="S2" t="n" s="240">
+        <v>24.0</v>
+      </c>
+      <c r="T2" t="n" s="241">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="U2" t="n" s="242">
+        <v>72.94520547945206</v>
+      </c>
+      <c r="V2" t="s" s="250">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s" s="251">
+        <v>62</v>
+      </c>
+      <c r="X2" t="n" s="252">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="144"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="165"/>
+      <c r="I3" t="n" s="243">
+        <f>SUM(I2:I2)</f>
+        <v>77.05479452054794</v>
+      </c>
+      <c r="J3" s="171"/>
+      <c r="K3" t="n" s="244">
+        <f>SUM(K2:K2)</f>
+        <v>150.0</v>
+      </c>
+      <c r="L3" s="177"/>
+      <c r="M3" t="n" s="245">
+        <f>SUM(M2:M2)</f>
+        <v>174.0</v>
+      </c>
+      <c r="N3" s="183"/>
+      <c r="O3" t="n" s="246">
+        <f>SUM(O2:O2)</f>
+        <v>181.4795</v>
+      </c>
+      <c r="P3" s="189"/>
+      <c r="Q3" t="n" s="247">
+        <f>SUM(Q2:Q2)</f>
+        <v>31.099999999999998</v>
+      </c>
+      <c r="R3" s="195"/>
+      <c r="S3" t="n" s="248">
+        <f>SUM(S2:S2)</f>
+        <v>24.0</v>
+      </c>
+      <c r="T3" s="201"/>
+      <c r="U3" t="n" s="249">
+        <f>SUM(U2:U2)</f>
+        <v>72.94520547945206</v>
+      </c>
+      <c r="V3" s="207"/>
+      <c r="W3" s="210"/>
+      <c r="X3" s="213"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="255" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="261" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="264" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="267" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="270" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="273" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="276" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="279" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="282" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="285" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="288" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="291" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="294" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="297" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="300" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="303" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="306" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="309" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="312" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="315" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="318" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="321" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="324" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="325">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s" s="335">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s" s="327">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="328">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="329">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n" s="341">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G2" t="n" s="336">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="337">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="I2" t="n" s="338">
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J2" t="n" s="339">
+        <v>250.0</v>
+      </c>
+      <c r="K2" t="n" s="342">
+        <v>250.0</v>
+      </c>
+      <c r="L2" t="n" s="343">
+        <v>290.0</v>
+      </c>
+      <c r="M2" t="n" s="344">
+        <v>290.0</v>
+      </c>
+      <c r="N2" t="n" s="345">
+        <v>299.1325</v>
+      </c>
+      <c r="O2" t="n" s="346">
+        <v>299.1325</v>
+      </c>
+      <c r="P2" t="n" s="347">
+        <v>48.5</v>
+      </c>
+      <c r="Q2" t="n" s="348">
+        <v>48.5</v>
+      </c>
+      <c r="R2" t="n" s="349">
+        <v>40.0</v>
+      </c>
+      <c r="S2" t="n" s="350">
+        <v>40.0</v>
+      </c>
+      <c r="T2" t="n" s="351">
+        <v>121.57534246575344</v>
+      </c>
+      <c r="U2" t="n" s="352">
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V2" t="s" s="360">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s" s="361">
+        <v>67</v>
+      </c>
+      <c r="X2" t="n" s="362">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="254"/>
+      <c r="B3" s="257"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="263"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="275"/>
+      <c r="I3" t="n" s="353">
+        <f>SUM(I2:I2)</f>
+        <v>128.42465753424656</v>
+      </c>
+      <c r="J3" s="281"/>
+      <c r="K3" t="n" s="354">
+        <f>SUM(K2:K2)</f>
+        <v>250.0</v>
+      </c>
+      <c r="L3" s="287"/>
+      <c r="M3" t="n" s="355">
+        <f>SUM(M2:M2)</f>
+        <v>290.0</v>
+      </c>
+      <c r="N3" s="293"/>
+      <c r="O3" t="n" s="356">
+        <f>SUM(O2:O2)</f>
+        <v>299.1325</v>
+      </c>
+      <c r="P3" s="299"/>
+      <c r="Q3" t="n" s="357">
+        <f>SUM(Q2:Q2)</f>
+        <v>48.5</v>
+      </c>
+      <c r="R3" s="305"/>
+      <c r="S3" t="n" s="358">
+        <f>SUM(S2:S2)</f>
+        <v>40.0</v>
+      </c>
+      <c r="T3" s="311"/>
+      <c r="U3" t="n" s="359">
+        <f>SUM(U2:U2)</f>
+        <v>121.57534246575344</v>
+      </c>
+      <c r="V3" s="317"/>
+      <c r="W3" s="320"/>
+      <c r="X3" s="323"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="365" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="371" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="374" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="377" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="380" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="383" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="386" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="389" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="392" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="395" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="398" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="401" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="404" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="407" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="410" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="413" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="416" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="419" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="422" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="425" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="428" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="431" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="434" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="435">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s" s="445">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s" s="437">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="438">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="439">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n" s="451">
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G2" t="n" s="446">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="447">
+        <v>27.0</v>
+      </c>
+      <c r="I2" t="n" s="448">
+        <v>27.0</v>
+      </c>
+      <c r="J2" t="n" s="449">
+        <v>60.0</v>
+      </c>
+      <c r="K2" t="n" s="452">
+        <v>60.0</v>
+      </c>
+      <c r="L2" t="n" s="453">
+        <v>69.6</v>
+      </c>
+      <c r="M2" t="n" s="454">
+        <v>2644.7999999999997</v>
+      </c>
+      <c r="N2" t="n" s="455">
+        <v>75.5918</v>
+      </c>
+      <c r="O2" t="n" s="456">
+        <v>2872.4884</v>
+      </c>
+      <c r="P2" t="n" s="457">
+        <v>15.44</v>
+      </c>
+      <c r="Q2" t="n" s="458">
+        <v>586.72</v>
+      </c>
+      <c r="R2" t="n" s="459">
+        <v>9.6</v>
+      </c>
+      <c r="S2" t="n" s="460">
+        <v>9.6</v>
+      </c>
+      <c r="T2" t="n" s="461">
+        <v>33.0</v>
+      </c>
+      <c r="U2" t="n" s="462">
+        <v>1254.0</v>
+      </c>
+      <c r="V2" t="s" s="470">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s" s="471">
+        <v>71</v>
+      </c>
+      <c r="X2" t="n" s="472">
+        <v>41.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="364"/>
+      <c r="B3" s="367"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="379"/>
+      <c r="G3" s="382"/>
+      <c r="H3" s="385"/>
+      <c r="I3" t="n" s="463">
+        <f>SUM(I2:I2)</f>
+        <v>27.0</v>
+      </c>
+      <c r="J3" s="391"/>
+      <c r="K3" t="n" s="464">
+        <f>SUM(K2:K2)</f>
+        <v>60.0</v>
+      </c>
+      <c r="L3" s="397"/>
+      <c r="M3" t="n" s="465">
+        <f>SUM(M2:M2)</f>
+        <v>2644.7999999999997</v>
+      </c>
+      <c r="N3" s="403"/>
+      <c r="O3" t="n" s="466">
+        <f>SUM(O2:O2)</f>
+        <v>2872.4884</v>
+      </c>
+      <c r="P3" s="409"/>
+      <c r="Q3" t="n" s="467">
+        <f>SUM(Q2:Q2)</f>
+        <v>586.72</v>
+      </c>
+      <c r="R3" s="415"/>
+      <c r="S3" t="n" s="468">
+        <f>SUM(S2:S2)</f>
+        <v>9.6</v>
+      </c>
+      <c r="T3" s="421"/>
+      <c r="U3" t="n" s="469">
+        <f>SUM(U2:U2)</f>
+        <v>1254.0</v>
+      </c>
+      <c r="V3" s="427"/>
+      <c r="W3" s="430"/>
+      <c r="X3" s="433"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="475" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="481" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="484" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="487" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="490" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="493" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="496" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="499" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="502" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="505" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="508" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="511" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="514" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="517" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="520" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="523" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="526" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="529" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="532" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="535" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="538" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="541" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="544" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="545">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s" s="555">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="547">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="548">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s" s="549">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n" s="561">
+        <v>2.0053475935828877</v>
+      </c>
+      <c r="G2" t="n" s="556">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="557">
+        <v>14.96</v>
+      </c>
+      <c r="I2" t="n" s="558">
+        <v>14.96</v>
+      </c>
+      <c r="J2" t="n" s="559">
+        <v>30.0</v>
+      </c>
+      <c r="K2" t="n" s="562">
+        <v>30.0</v>
+      </c>
+      <c r="L2" t="n" s="563">
+        <v>34.8</v>
+      </c>
+      <c r="M2" t="n" s="564">
+        <v>6751.2</v>
+      </c>
+      <c r="N2" t="n" s="565">
+        <v>40.2959</v>
+      </c>
+      <c r="O2" t="n" s="566">
+        <v>7817.404600000001</v>
+      </c>
+      <c r="P2" t="n" s="567">
+        <v>10.219999999999999</v>
+      </c>
+      <c r="Q2" t="n" s="568">
+        <v>1982.6799999999998</v>
+      </c>
+      <c r="R2" t="n" s="569">
+        <v>4.8</v>
+      </c>
+      <c r="S2" t="n" s="570">
+        <v>4.8</v>
+      </c>
+      <c r="T2" t="n" s="571">
+        <v>15.04</v>
+      </c>
+      <c r="U2" t="n" s="572">
+        <v>2917.7599999999998</v>
+      </c>
+      <c r="V2" t="s" s="580">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s" s="581">
+        <v>75</v>
+      </c>
+      <c r="X2" t="n" s="582">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="474"/>
+      <c r="B3" s="477"/>
+      <c r="C3" s="480"/>
+      <c r="D3" s="483"/>
+      <c r="E3" s="486"/>
+      <c r="F3" s="489"/>
+      <c r="G3" s="492"/>
+      <c r="H3" s="495"/>
+      <c r="I3" t="n" s="573">
+        <f>SUM(I2:I2)</f>
+        <v>14.96</v>
+      </c>
+      <c r="J3" s="501"/>
+      <c r="K3" t="n" s="574">
+        <f>SUM(K2:K2)</f>
+        <v>30.0</v>
+      </c>
+      <c r="L3" s="507"/>
+      <c r="M3" t="n" s="575">
+        <f>SUM(M2:M2)</f>
+        <v>6751.2</v>
+      </c>
+      <c r="N3" s="513"/>
+      <c r="O3" t="n" s="576">
+        <f>SUM(O2:O2)</f>
+        <v>7817.404600000001</v>
+      </c>
+      <c r="P3" s="519"/>
+      <c r="Q3" t="n" s="577">
+        <f>SUM(Q2:Q2)</f>
+        <v>1982.6799999999998</v>
+      </c>
+      <c r="R3" s="525"/>
+      <c r="S3" t="n" s="578">
+        <f>SUM(S2:S2)</f>
+        <v>4.8</v>
+      </c>
+      <c r="T3" s="531"/>
+      <c r="U3" t="n" s="579">
+        <f>SUM(U2:U2)</f>
+        <v>2917.7599999999998</v>
+      </c>
+      <c r="V3" s="537"/>
+      <c r="W3" s="540"/>
+      <c r="X3" s="543"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="58.59375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="19.53125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30.0" customHeight="true">
+      <c r="A1" s="585" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="588" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="591" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="594" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="597" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="600" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="603" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="606" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="609" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="612" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="615" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="618" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="621" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="624" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="627" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" s="630" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="633" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="636" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="639" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="642" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="645" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="648" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="651" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="654" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="655">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s" s="665">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s" s="657">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s" s="658">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="659">
+        <v>78</v>
+      </c>
+      <c r="F2" t="n" s="671">
+        <v>1.2405405405405405</v>
+      </c>
+      <c r="G2" t="n" s="666">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="667">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="I2" t="n" s="668">
+        <v>322.4400871459695</v>
+      </c>
+      <c r="J2" t="n" s="669">
+        <v>400.0</v>
+      </c>
+      <c r="K2" t="n" s="672">
+        <v>400.0</v>
+      </c>
+      <c r="L2" t="n" s="673">
+        <v>464.0</v>
+      </c>
+      <c r="M2" t="n" s="674">
+        <v>464.0</v>
+      </c>
+      <c r="N2" t="n" s="675">
+        <v>475.612</v>
+      </c>
+      <c r="O2" t="n" s="676">
+        <v>475.612</v>
+      </c>
+      <c r="P2" t="n" s="677">
+        <v>74.6</v>
+      </c>
+      <c r="Q2" t="n" s="678">
+        <v>74.6</v>
+      </c>
+      <c r="R2" t="n" s="679">
+        <v>64.0</v>
+      </c>
+      <c r="S2" t="n" s="680">
+        <v>64.0</v>
+      </c>
+      <c r="T2" t="n" s="681">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="U2" t="n" s="682">
+        <v>77.55991285403047</v>
+      </c>
+      <c r="V2" t="s" s="690">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s" s="691">
+        <v>82</v>
+      </c>
+      <c r="X2" t="n" s="692">
+        <v>43.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="584"/>
+      <c r="B3" s="587"/>
+      <c r="C3" s="590"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="596"/>
+      <c r="F3" s="599"/>
+      <c r="G3" s="602"/>
+      <c r="H3" s="605"/>
+      <c r="I3" t="n" s="683">
+        <f>SUM(I2:I2)</f>
+        <v>322.4400871459695</v>
+      </c>
+      <c r="J3" s="611"/>
+      <c r="K3" t="n" s="684">
+        <f>SUM(K2:K2)</f>
+        <v>400.0</v>
+      </c>
+      <c r="L3" s="617"/>
+      <c r="M3" t="n" s="685">
+        <f>SUM(M2:M2)</f>
+        <v>464.0</v>
+      </c>
+      <c r="N3" s="623"/>
+      <c r="O3" t="n" s="686">
+        <f>SUM(O2:O2)</f>
+        <v>475.612</v>
+      </c>
+      <c r="P3" s="629"/>
+      <c r="Q3" t="n" s="687">
+        <f>SUM(Q2:Q2)</f>
+        <v>74.6</v>
+      </c>
+      <c r="R3" s="635"/>
+      <c r="S3" t="n" s="688">
+        <f>SUM(S2:S2)</f>
+        <v>64.0</v>
+      </c>
+      <c r="T3" s="641"/>
+      <c r="U3" t="n" s="689">
+        <f>SUM(U2:U2)</f>
+        <v>77.55991285403047</v>
+      </c>
+      <c r="V3" s="647"/>
+      <c r="W3" s="650"/>
+      <c r="X3" s="653"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="90">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -292,6 +292,24 @@
   <si>
     <t>AGOSTO</t>
   </si>
+  <si>
+    <t>FRENO HIDRAULICO DELANTERO SHIMANO</t>
+  </si>
+  <si>
+    <t>256.8493150684931</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>LLANTA 26" CST</t>
+  </si>
+  <si>
+    <t>95% DE VIDA - MEDIDAS 2.25x26" - SEMINUEVA</t>
+  </si>
+  <si>
+    <t>205.4794520547945</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +320,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="722" x14ac:knownFonts="1">
+  <fonts count="798" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4024,6 +4042,462 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -4826,7 +5300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="731">
+  <cellXfs count="807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7016,6 +7490,234 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="721" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="737" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="772" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="773" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="774" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="778" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="779" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="780" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="782" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="784" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="785" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="786" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="787" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="788" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="789" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="790" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="791" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="792" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="793" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="794" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7788,7 +8490,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -8033,52 +8735,126 @@
         <v>44.0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61"/>
-      <c r="I4" t="n" s="721">
-        <f>SUM(I2:I3)</f>
-        <v>41.96</v>
-      </c>
-      <c r="J4" s="64"/>
-      <c r="K4" t="n" s="722">
-        <f>SUM(K2:K3)</f>
-        <v>90.0</v>
-      </c>
-      <c r="L4" s="67"/>
-      <c r="M4" t="n" s="723">
-        <f>SUM(M2:M3)</f>
-        <v>9430.8</v>
-      </c>
-      <c r="N4" s="70"/>
-      <c r="O4" t="n" s="724">
-        <f>SUM(O2:O3)</f>
-        <v>10725.188900000001</v>
-      </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" t="n" s="725">
-        <f>SUM(Q2:Q3)</f>
-        <v>2574.62</v>
-      </c>
-      <c r="R4" s="76"/>
-      <c r="S4" t="n" s="726">
-        <f>SUM(S2:S3)</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="T4" s="79"/>
-      <c r="U4" t="n" s="727">
-        <f>SUM(U2:U3)</f>
-        <v>4189.719999999999</v>
-      </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="86"/>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="769">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="779">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s" s="771">
+        <v>83</v>
+      </c>
+      <c r="D4" t="s" s="772">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="773">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n" s="785">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G4" t="n" s="780">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n" s="781">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="I4" t="n" s="782">
+        <v>205.4794520547945</v>
+      </c>
+      <c r="J4" t="n" s="783">
+        <v>400.0</v>
+      </c>
+      <c r="K4" t="n" s="786">
+        <v>400.0</v>
+      </c>
+      <c r="L4" t="n" s="787">
+        <v>464.0</v>
+      </c>
+      <c r="M4" t="n" s="788">
+        <v>464.0</v>
+      </c>
+      <c r="N4" t="n" s="789">
+        <v>475.612</v>
+      </c>
+      <c r="O4" t="n" s="790">
+        <v>475.612</v>
+      </c>
+      <c r="P4" t="n" s="791">
+        <v>74.6</v>
+      </c>
+      <c r="Q4" t="n" s="792">
+        <v>74.6</v>
+      </c>
+      <c r="R4" t="n" s="793">
+        <v>64.0</v>
+      </c>
+      <c r="S4" t="n" s="794">
+        <v>64.0</v>
+      </c>
+      <c r="T4" t="n" s="795">
+        <v>194.5205479452055</v>
+      </c>
+      <c r="U4" t="n" s="796">
+        <v>194.5205479452055</v>
+      </c>
+      <c r="V4" t="s" s="804">
+        <v>32</v>
+      </c>
+      <c r="W4" t="s" s="805">
+        <v>52</v>
+      </c>
+      <c r="X4" t="n" s="806">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="61"/>
+      <c r="I5" t="n" s="797">
+        <f>SUM(I2:I4)</f>
+        <v>247.43945205479451</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" t="n" s="798">
+        <f>SUM(K2:K4)</f>
+        <v>490.0</v>
+      </c>
+      <c r="L5" s="67"/>
+      <c r="M5" t="n" s="799">
+        <f>SUM(M2:M4)</f>
+        <v>9894.8</v>
+      </c>
+      <c r="N5" s="70"/>
+      <c r="O5" t="n" s="800">
+        <f>SUM(O2:O4)</f>
+        <v>11200.8009</v>
+      </c>
+      <c r="P5" s="73"/>
+      <c r="Q5" t="n" s="801">
+        <f>SUM(Q2:Q4)</f>
+        <v>2649.22</v>
+      </c>
+      <c r="R5" s="76"/>
+      <c r="S5" t="n" s="802">
+        <f>SUM(S2:S4)</f>
+        <v>78.4</v>
+      </c>
+      <c r="T5" s="79"/>
+      <c r="U5" t="n" s="803">
+        <f>SUM(U2:U4)</f>
+        <v>4384.2405479452045</v>
+      </c>
+      <c r="V5" s="82"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8321,7 +9097,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:X3"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8502,51 +9278,125 @@
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="254"/>
-      <c r="B3" s="257"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="275"/>
-      <c r="I3" t="n" s="353">
-        <f>SUM(I2:I2)</f>
-        <v>128.42465753424656</v>
-      </c>
-      <c r="J3" s="281"/>
-      <c r="K3" t="n" s="354">
-        <f>SUM(K2:K2)</f>
-        <v>250.0</v>
-      </c>
-      <c r="L3" s="287"/>
-      <c r="M3" t="n" s="355">
-        <f>SUM(M2:M2)</f>
-        <v>290.0</v>
-      </c>
-      <c r="N3" s="293"/>
-      <c r="O3" t="n" s="356">
-        <f>SUM(O2:O2)</f>
-        <v>299.1325</v>
-      </c>
-      <c r="P3" s="299"/>
-      <c r="Q3" t="n" s="357">
-        <f>SUM(Q2:Q2)</f>
-        <v>48.5</v>
-      </c>
-      <c r="R3" s="305"/>
-      <c r="S3" t="n" s="358">
-        <f>SUM(S2:S2)</f>
-        <v>40.0</v>
-      </c>
-      <c r="T3" s="311"/>
-      <c r="U3" t="n" s="359">
-        <f>SUM(U2:U2)</f>
-        <v>121.57534246575344</v>
-      </c>
-      <c r="V3" s="317"/>
-      <c r="W3" s="320"/>
-      <c r="X3" s="323"/>
+      <c r="A3" t="s" s="731">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s" s="741">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s" s="733">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s" s="734">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s" s="735">
+        <v>12</v>
+      </c>
+      <c r="F3" t="n" s="747">
+        <v>1.9466666666666668</v>
+      </c>
+      <c r="G3" t="n" s="742">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n" s="743">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="I3" t="n" s="744">
+        <v>256.8493150684931</v>
+      </c>
+      <c r="J3" t="n" s="745">
+        <v>500.0</v>
+      </c>
+      <c r="K3" t="n" s="748">
+        <v>500.0</v>
+      </c>
+      <c r="L3" t="n" s="749">
+        <v>580.0</v>
+      </c>
+      <c r="M3" t="n" s="750">
+        <v>580.0</v>
+      </c>
+      <c r="N3" t="n" s="751">
+        <v>588.265</v>
+      </c>
+      <c r="O3" t="n" s="752">
+        <v>588.265</v>
+      </c>
+      <c r="P3" t="n" s="753">
+        <v>92.0</v>
+      </c>
+      <c r="Q3" t="n" s="754">
+        <v>92.0</v>
+      </c>
+      <c r="R3" t="n" s="755">
+        <v>80.0</v>
+      </c>
+      <c r="S3" t="n" s="756">
+        <v>80.0</v>
+      </c>
+      <c r="T3" t="n" s="757">
+        <v>243.15068493150687</v>
+      </c>
+      <c r="U3" t="n" s="758">
+        <v>243.15068493150687</v>
+      </c>
+      <c r="V3" t="s" s="766">
+        <v>32</v>
+      </c>
+      <c r="W3" t="s" s="767">
+        <v>67</v>
+      </c>
+      <c r="X3" t="n" s="768">
+        <v>45.0</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="254"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="275"/>
+      <c r="I4" t="n" s="759">
+        <f>SUM(I2:I3)</f>
+        <v>385.2739726027397</v>
+      </c>
+      <c r="J4" s="281"/>
+      <c r="K4" t="n" s="760">
+        <f>SUM(K2:K3)</f>
+        <v>750.0</v>
+      </c>
+      <c r="L4" s="287"/>
+      <c r="M4" t="n" s="761">
+        <f>SUM(M2:M3)</f>
+        <v>870.0</v>
+      </c>
+      <c r="N4" s="293"/>
+      <c r="O4" t="n" s="762">
+        <f>SUM(O2:O3)</f>
+        <v>887.3975</v>
+      </c>
+      <c r="P4" s="299"/>
+      <c r="Q4" t="n" s="763">
+        <f>SUM(Q2:Q3)</f>
+        <v>140.5</v>
+      </c>
+      <c r="R4" s="305"/>
+      <c r="S4" t="n" s="764">
+        <f>SUM(S2:S3)</f>
+        <v>120.0</v>
+      </c>
+      <c r="T4" s="311"/>
+      <c r="U4" t="n" s="765">
+        <f>SUM(U2:U3)</f>
+        <v>364.7260273972603</v>
+      </c>
+      <c r="V4" s="317"/>
+      <c r="W4" s="320"/>
+      <c r="X4" s="323"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JavaApplication19/src/excel/historialCompras.xlsx
+++ b/JavaApplication19/src/excel/historialCompras.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="84">
   <si>
     <t>DESCRIPCIÓN</t>
   </si>
@@ -302,7 +302,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="722" x14ac:knownFonts="1">
+  <fonts count="760" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4024,6 +4024,234 @@
     <font>
       <name val="Calibri"/>
       <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="1.0"/>
       <color indexed="8"/>
       <b val="true"/>
     </font>
@@ -4826,7 +5054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="731">
+  <cellXfs count="769">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7016,6 +7244,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="721" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="734" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="735" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="736" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="737" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="739" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="12" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="11" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="13" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="12" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7788,7 +8130,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -7959,126 +8301,52 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="28.8" customHeight="true">
-      <c r="A3" t="s" s="693">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s" s="703">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s" s="695">
-        <v>83</v>
-      </c>
-      <c r="D3" t="s" s="696">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s" s="697">
-        <v>29</v>
-      </c>
-      <c r="F3" t="n" s="709">
-        <v>2.0053475935828877</v>
-      </c>
-      <c r="G3" t="n" s="704">
-        <v>1.0</v>
-      </c>
-      <c r="H3" t="n" s="705">
-        <v>14.96</v>
-      </c>
-      <c r="I3" t="n" s="706">
-        <v>14.96</v>
-      </c>
-      <c r="J3" t="n" s="707">
-        <v>30.0</v>
-      </c>
-      <c r="K3" t="n" s="710">
-        <v>30.0</v>
-      </c>
-      <c r="L3" t="n" s="711">
-        <v>34.8</v>
-      </c>
-      <c r="M3" t="n" s="712">
-        <v>6716.4</v>
-      </c>
-      <c r="N3" t="n" s="713">
-        <v>40.2959</v>
-      </c>
-      <c r="O3" t="n" s="714">
-        <v>7777.108700000001</v>
-      </c>
-      <c r="P3" t="n" s="715">
-        <v>10.219999999999999</v>
-      </c>
-      <c r="Q3" t="n" s="716">
-        <v>1972.4599999999998</v>
-      </c>
-      <c r="R3" t="n" s="717">
-        <v>4.8</v>
-      </c>
-      <c r="S3" t="n" s="718">
-        <v>4.8</v>
-      </c>
-      <c r="T3" t="n" s="719">
-        <v>15.04</v>
-      </c>
-      <c r="U3" t="n" s="720">
-        <v>2902.72</v>
-      </c>
-      <c r="V3" t="s" s="728">
-        <v>32</v>
-      </c>
-      <c r="W3" t="s" s="729">
-        <v>52</v>
-      </c>
-      <c r="X3" t="n" s="730">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61"/>
-      <c r="I4" t="n" s="721">
+    <row r="3" spans="1:24" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="61"/>
+      <c r="I3" t="n" s="759">
         <f>SUM(I2:I3)</f>
         <v>41.96</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" t="n" s="722">
+      <c r="J3" s="64"/>
+      <c r="K3" t="n" s="760">
         <f>SUM(K2:K3)</f>
         <v>90.0</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" t="n" s="723">
+      <c r="L3" s="67"/>
+      <c r="M3" t="n" s="761">
         <f>SUM(M2:M3)</f>
         <v>9430.8</v>
       </c>
-      <c r="N4" s="70"/>
-      <c r="O4" t="n" s="724">
+      <c r="N3" s="70"/>
+      <c r="O3" t="n" s="762">
         <f>SUM(O2:O3)</f>
         <v>10725.188900000001</v>
       </c>
-      <c r="P4" s="73"/>
-      <c r="Q4" t="n" s="725">
+      <c r="P3" s="73"/>
+      <c r="Q3" t="n" s="763">
         <f>SUM(Q2:Q3)</f>
         <v>2574.62</v>
       </c>
-      <c r="R4" s="76"/>
-      <c r="S4" t="n" s="726">
+      <c r="R3" s="76"/>
+      <c r="S3" t="n" s="764">
         <f>SUM(S2:S3)</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="T4" s="79"/>
-      <c r="U4" t="n" s="727">
+      <c r="T3" s="79"/>
+      <c r="U3" t="n" s="765">
         <f>SUM(U2:U3)</f>
         <v>4189.719999999999</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="86"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
